--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,24 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA02211-A970-4C46-8CC4-E01B3E541B6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88562B2-DE2A-4064-8378-BBEEDCBC8633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FO_Registration_Page" sheetId="15" r:id="rId1"/>
-    <sheet name="FO_Billing_Page" sheetId="17" r:id="rId2"/>
-    <sheet name="FO_Appointment_Scheduling" sheetId="18" r:id="rId3"/>
-    <sheet name="FrontOfficeAppointmentSchedul" sheetId="1" r:id="rId4"/>
-    <sheet name="FrontOfficeEquipmentSchedule" sheetId="2" r:id="rId5"/>
-    <sheet name="FrontOfficeDoctorCurrentStatus" sheetId="3" r:id="rId6"/>
-    <sheet name="FrontOfficeSearchSchedule" sheetId="4" r:id="rId7"/>
-    <sheet name="FrontOfficePhysicianOrderbill" sheetId="5" r:id="rId8"/>
-    <sheet name="FrontOfficePatientRegistration" sheetId="7" r:id="rId9"/>
-    <sheet name="FrontOfficeHomeCareAppointment" sheetId="8" r:id="rId10"/>
-    <sheet name="FrontOfficeBlockHomeCareAppo" sheetId="9" r:id="rId11"/>
-    <sheet name="FrontOfficePhyOrderReBilling" sheetId="12" r:id="rId12"/>
-    <sheet name="FrontOfficeUploadDocument" sheetId="13" r:id="rId13"/>
+    <sheet name="FO_Registration_Passport_Page" sheetId="19" r:id="rId2"/>
+    <sheet name="FO_Billing_Page" sheetId="17" r:id="rId3"/>
+    <sheet name="FO_Appointment_Scheduling" sheetId="18" r:id="rId4"/>
+    <sheet name="FrontOfficeAppointmentSchedul" sheetId="1" r:id="rId5"/>
+    <sheet name="FrontOfficeEquipmentSchedule" sheetId="2" r:id="rId6"/>
+    <sheet name="FrontOfficeDoctorCurrentStatus" sheetId="3" r:id="rId7"/>
+    <sheet name="FrontOfficeSearchSchedule" sheetId="4" r:id="rId8"/>
+    <sheet name="FrontOfficePhysicianOrderbill" sheetId="5" r:id="rId9"/>
+    <sheet name="FrontOfficePatientRegistration" sheetId="7" r:id="rId10"/>
+    <sheet name="FrontOfficeHomeCareAppointment" sheetId="8" r:id="rId11"/>
+    <sheet name="FrontOfficeBlockHomeCareAppo" sheetId="9" r:id="rId12"/>
+    <sheet name="FrontOfficePhyOrderReBilling" sheetId="12" r:id="rId13"/>
+    <sheet name="FrontOfficeUploadDocument" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="379">
   <si>
     <t>Facility</t>
   </si>
@@ -882,15 +883,9 @@
     <t>asvg123</t>
   </si>
   <si>
-    <t>Modification</t>
-  </si>
-  <si>
     <t>VIP_Text</t>
   </si>
   <si>
-    <t>Adhar000</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABHA </t>
   </si>
   <si>
@@ -1035,9 +1030,6 @@
     <t>Select_Doctor_name</t>
   </si>
   <si>
-    <t>anannda ji Kumar</t>
-  </si>
-  <si>
     <t>Appoint_First_Name</t>
   </si>
   <si>
@@ -1117,6 +1109,69 @@
   </si>
   <si>
     <t>Under_10_years_DOB</t>
+  </si>
+  <si>
+    <t>ID1234567</t>
+  </si>
+  <si>
+    <t>Remaks Show  In Billing</t>
+  </si>
+  <si>
+    <t>Enter_dig_pin</t>
+  </si>
+  <si>
+    <t>A123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Card Missing </t>
+  </si>
+  <si>
+    <t>Passport_Number</t>
+  </si>
+  <si>
+    <t>Passport_Issued_At</t>
+  </si>
+  <si>
+    <t>Passport_Issue_date</t>
+  </si>
+  <si>
+    <t>Passport_Expiry_date</t>
+  </si>
+  <si>
+    <t>Visa_Vaild_From</t>
+  </si>
+  <si>
+    <t>Visa_Number</t>
+  </si>
+  <si>
+    <t>Visa_valid_to</t>
+  </si>
+  <si>
+    <t>Passport_Remaks</t>
+  </si>
+  <si>
+    <t>PassportNO001</t>
+  </si>
+  <si>
+    <t>NEW DELHI</t>
+  </si>
+  <si>
+    <t>VISANUMBER001</t>
+  </si>
+  <si>
+    <t>Check And Save</t>
+  </si>
+  <si>
+    <t>Satish</t>
+  </si>
+  <si>
+    <t>city_drp</t>
+  </si>
+  <si>
+    <t>New Delhi D345</t>
+  </si>
+  <si>
+    <t>Bobby Lord</t>
   </si>
 </sst>
 </file>
@@ -1458,10 +1513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E013439-B5E0-44E3-AE81-9E94621FE47E}">
-  <dimension ref="A1:BJ2"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection sqref="A1:BJ2"/>
+    <sheetView topLeftCell="BD1" workbookViewId="0">
+      <selection activeCell="BF2" sqref="BF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,43 +1547,44 @@
     <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="19" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12" customWidth="1"/>
-    <col min="38" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="31" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" customWidth="1"/>
+    <col min="28" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" customWidth="1"/>
+    <col min="39" max="39" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="25" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -1554,7 +1610,7 @@
         <v>211</v>
       </c>
       <c r="I1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>212</v>
@@ -1607,121 +1663,124 @@
       <c r="Z1" t="s">
         <v>226</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB1" t="s">
         <v>227</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>229</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>230</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>231</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>232</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>233</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>235</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>236</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>237</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>238</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>239</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>240</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>241</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>242</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>243</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>244</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>246</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>247</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>248</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>249</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>250</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>251</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>252</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>253</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>254</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>255</v>
       </c>
-      <c r="BD1" s="5" t="s">
+      <c r="BE1" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>257</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>258</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>259</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>260</v>
       </c>
-      <c r="BI1" s="5" t="s">
+      <c r="BJ1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
@@ -1745,7 +1804,7 @@
         <v>43058</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K2" t="s">
         <v>94</v>
@@ -1766,7 +1825,7 @@
         <v>12345678</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="R2">
         <v>9876543210</v>
@@ -1784,124 +1843,127 @@
         <v>271</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="X2" t="s">
         <v>273</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Z2" t="s">
         <v>274</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB2" t="s">
         <v>275</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>276</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>277</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>278</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>279</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>280</v>
       </c>
       <c r="AG2" t="s">
         <v>280</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>359</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>358</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>286</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>290</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>291</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>292</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE2" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="AI2" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>285</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>286</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS2" s="5" t="s">
+      <c r="BF2" t="s">
+        <v>293</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="AT2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>289</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>290</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>293</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>294</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BK2" t="s">
         <v>295</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>296</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -1914,6 +1976,158 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N1" t="s">
+        <v>103</v>
+      </c>
+      <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R2"/>
   <sheetViews>
@@ -2062,7 +2276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -2132,7 +2346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2181,7 +2395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AI2"/>
   <sheetViews>
@@ -2448,6 +2662,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B46374-9208-47E4-93A3-0C8576411B23}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O1" t="s">
+        <v>210</v>
+      </c>
+      <c r="P1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>357</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" t="s">
+        <v>213</v>
+      </c>
+      <c r="T1" t="s">
+        <v>217</v>
+      </c>
+      <c r="U1" t="s">
+        <v>221</v>
+      </c>
+      <c r="V1" t="s">
+        <v>376</v>
+      </c>
+      <c r="W1" t="s">
+        <v>222</v>
+      </c>
+      <c r="X1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="3">
+        <v>46344</v>
+      </c>
+      <c r="E2" s="3">
+        <v>46016</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="3">
+        <v>45610</v>
+      </c>
+      <c r="I2" s="3">
+        <v>46140</v>
+      </c>
+      <c r="J2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" t="s">
+        <v>263</v>
+      </c>
+      <c r="N2" t="s">
+        <v>203</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3">
+        <v>40499</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>43058</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="S2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" t="s">
+        <v>170</v>
+      </c>
+      <c r="U2" t="s">
+        <v>377</v>
+      </c>
+      <c r="V2" t="s">
+        <v>272</v>
+      </c>
+      <c r="W2" t="s">
+        <v>271</v>
+      </c>
+      <c r="X2" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373D655A-26ED-4DBB-8B5A-A69FDF4C415A}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -2482,46 +2909,46 @@
         <v>205</v>
       </c>
       <c r="C1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" t="s">
         <v>305</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>307</v>
       </c>
-      <c r="E1" t="s">
-        <v>309</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" t="s">
+        <v>319</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="O1" t="s">
+        <v>323</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>327</v>
-      </c>
-      <c r="G1" t="s">
-        <v>310</v>
-      </c>
-      <c r="H1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J1" t="s">
-        <v>313</v>
-      </c>
-      <c r="K1" t="s">
-        <v>317</v>
-      </c>
-      <c r="L1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="O1" t="s">
-        <v>325</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2529,49 +2956,49 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" t="s">
         <v>306</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>328</v>
-      </c>
       <c r="G2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H2" t="s">
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K2" t="s">
+        <v>318</v>
+      </c>
+      <c r="L2" t="s">
         <v>320</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="O2" t="s">
         <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2580,12 +3007,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3078705D-F9CA-4876-A484-E54C9F60570C}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2618,55 +3045,55 @@
         <v>205</v>
       </c>
       <c r="C1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" t="s">
         <v>331</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>332</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" t="s">
         <v>334</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>336</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="L1" t="s">
         <v>338</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>339</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>340</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>341</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>342</v>
-      </c>
-      <c r="N1" t="s">
-        <v>343</v>
-      </c>
-      <c r="O1" t="s">
-        <v>344</v>
-      </c>
-      <c r="P1" t="s">
-        <v>345</v>
       </c>
       <c r="Q1" t="s">
         <v>113</v>
       </c>
       <c r="R1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="S1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -2674,58 +3101,58 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="E2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H2">
         <v>8527417</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L2" t="s">
         <v>129</v>
       </c>
       <c r="M2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N2" t="s">
         <v>27</v>
       </c>
       <c r="O2" t="s">
+        <v>351</v>
+      </c>
+      <c r="P2" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>352</v>
+      </c>
+      <c r="R2" t="s">
         <v>354</v>
       </c>
-      <c r="P2" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>355</v>
-      </c>
-      <c r="R2" t="s">
-        <v>357</v>
-      </c>
       <c r="S2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2734,7 +3161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW2"/>
   <sheetViews>
@@ -3095,7 +3522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -3247,7 +3674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -3325,7 +3752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -3410,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
@@ -3580,156 +4007,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L1" t="s">
-        <v>100</v>
-      </c>
-      <c r="M1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" t="s">
-        <v>104</v>
-      </c>
-      <c r="P1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" t="s">
-        <v>105</v>
-      </c>
-      <c r="P2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88562B2-DE2A-4064-8378-BBEEDCBC8633}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868C3FBF-524D-401C-BD8E-36566E2FA372}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FO_Registration_Page" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="390">
   <si>
     <t>Facility</t>
   </si>
@@ -964,9 +964,6 @@
     <t>Diagnostics_Test_Name</t>
   </si>
   <si>
-    <t>CBC</t>
-  </si>
-  <si>
     <t>Diagnostics_Test_Speciality_drp</t>
   </si>
   <si>
@@ -979,9 +976,6 @@
     <t>Anaesthesia</t>
   </si>
   <si>
-    <t>Employee151</t>
-  </si>
-  <si>
     <t>Manual_Service_Name_drp</t>
   </si>
   <si>
@@ -1009,15 +1003,9 @@
     <t>Referred_By</t>
   </si>
   <si>
-    <t>ana</t>
-  </si>
-  <si>
     <t>Visit_Room_numver_drp</t>
   </si>
   <si>
-    <t>111</t>
-  </si>
-  <si>
     <t>Facilitator_Name_Drp</t>
   </si>
   <si>
@@ -1171,7 +1159,52 @@
     <t>New Delhi D345</t>
   </si>
   <si>
-    <t>Bobby Lord</t>
+    <t>Rishab Mishra</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Appointment_Booking_Date</t>
+  </si>
+  <si>
+    <t>Billing_Source_Drp</t>
+  </si>
+  <si>
+    <t>Billing_SubSource_Drp</t>
+  </si>
+  <si>
+    <t>enter_remaks</t>
+  </si>
+  <si>
+    <t>Billing Remaks Box</t>
+  </si>
+  <si>
+    <t>Employee231</t>
+  </si>
+  <si>
+    <t>cbc outsource</t>
+  </si>
+  <si>
+    <t>Cardiology</t>
+  </si>
+  <si>
+    <t>Laxmi Halder</t>
+  </si>
+  <si>
+    <t>Bill_Scheme_Drp</t>
+  </si>
+  <si>
+    <t>Scheme_Authorised_By_drp</t>
+  </si>
+  <si>
+    <t>Auto_Bill_Scheme_Date</t>
+  </si>
+  <si>
+    <t>Dr. Himanshu Sharma</t>
+  </si>
+  <si>
+    <t>222</t>
   </si>
 </sst>
 </file>
@@ -1515,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E013439-B5E0-44E3-AE81-9E94621FE47E}">
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" workbookViewId="0">
-      <selection activeCell="BF2" sqref="BF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1610,7 +1643,7 @@
         <v>211</v>
       </c>
       <c r="I1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>212</v>
@@ -1664,7 +1697,7 @@
         <v>226</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AB1" t="s">
         <v>227</v>
@@ -1804,7 +1837,7 @@
         <v>43058</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="K2" t="s">
         <v>94</v>
@@ -1855,7 +1888,7 @@
         <v>274</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AB2" t="s">
         <v>275</v>
@@ -1885,19 +1918,19 @@
         <v>281</v>
       </c>
       <c r="AK2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AL2" t="s">
         <v>282</v>
       </c>
       <c r="AM2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AN2" t="s">
         <v>101</v>
       </c>
       <c r="AO2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AP2" t="s">
         <v>283</v>
@@ -2705,28 +2738,28 @@
         <v>205</v>
       </c>
       <c r="C1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" t="s">
         <v>363</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>365</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>366</v>
-      </c>
-      <c r="F1" t="s">
-        <v>364</v>
-      </c>
-      <c r="G1" t="s">
-        <v>368</v>
-      </c>
-      <c r="H1" t="s">
-        <v>367</v>
-      </c>
-      <c r="I1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J1" t="s">
-        <v>370</v>
       </c>
       <c r="K1" t="s">
         <v>206</v>
@@ -2747,7 +2780,7 @@
         <v>211</v>
       </c>
       <c r="Q1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>212</v>
@@ -2762,7 +2795,7 @@
         <v>221</v>
       </c>
       <c r="V1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="W1" t="s">
         <v>222</v>
@@ -2791,7 +2824,7 @@
         <v>296</v>
       </c>
       <c r="C2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D2" s="3">
         <v>46344</v>
@@ -2800,10 +2833,10 @@
         <v>46016</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H2" s="3">
         <v>45610</v>
@@ -2812,13 +2845,13 @@
         <v>46140</v>
       </c>
       <c r="J2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K2" t="s">
         <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M2" t="s">
         <v>263</v>
@@ -2836,7 +2869,7 @@
         <v>43058</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="S2" t="s">
         <v>94</v>
@@ -2845,7 +2878,7 @@
         <v>170</v>
       </c>
       <c r="U2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="V2" t="s">
         <v>272</v>
@@ -2876,10 +2909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373D655A-26ED-4DBB-8B5A-A69FDF4C415A}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,10 +2931,16 @@
     <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -2918,40 +2957,58 @@
         <v>307</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G1" t="s">
         <v>308</v>
       </c>
       <c r="H1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" t="s">
         <v>310</v>
       </c>
-      <c r="J1" t="s">
-        <v>311</v>
-      </c>
       <c r="K1" t="s">
+        <v>313</v>
+      </c>
+      <c r="L1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L1" t="s">
-        <v>319</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="O1" t="s">
+        <v>321</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="P1" s="5" t="s">
-        <v>327</v>
+      <c r="Q1" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2962,43 +3019,61 @@
         <v>304</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="G2" t="s">
-        <v>309</v>
+        <v>382</v>
       </c>
       <c r="H2" t="s">
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J2" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="K2" t="s">
+        <v>316</v>
+      </c>
+      <c r="L2" t="s">
         <v>318</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>322</v>
       </c>
       <c r="O2" t="s">
         <v>91</v>
       </c>
       <c r="P2" t="s">
-        <v>328</v>
+        <v>324</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>290</v>
+      </c>
+      <c r="R2" t="s">
+        <v>291</v>
+      </c>
+      <c r="S2" t="s">
+        <v>380</v>
+      </c>
+      <c r="T2" t="s">
+        <v>293</v>
+      </c>
+      <c r="U2" s="2">
+        <v>45994</v>
+      </c>
+      <c r="V2" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3009,10 +3084,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3078705D-F9CA-4876-A484-E54C9F60570C}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection sqref="A1:S2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3020,24 +3095,26 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>204</v>
       </c>
@@ -3045,58 +3122,61 @@
         <v>205</v>
       </c>
       <c r="C1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" t="s">
         <v>329</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>330</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>332</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>333</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" t="s">
         <v>335</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>336</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>337</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>338</v>
       </c>
-      <c r="M1" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" t="s">
-        <v>340</v>
-      </c>
-      <c r="O1" t="s">
-        <v>341</v>
-      </c>
-      <c r="P1" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>113</v>
       </c>
-      <c r="R1" t="s">
-        <v>353</v>
-      </c>
       <c r="S1" t="s">
-        <v>355</v>
+        <v>349</v>
+      </c>
+      <c r="T1" t="s">
+        <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3107,52 +3187,55 @@
         <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45993</v>
+      </c>
+      <c r="F2" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I2">
+        <v>8527417</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="K2" t="s">
+        <v>342</v>
+      </c>
+      <c r="L2" t="s">
         <v>343</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" t="s">
         <v>344</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q2" t="s">
         <v>345</v>
       </c>
-      <c r="H2">
-        <v>8527417</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="R2" t="s">
+        <v>348</v>
+      </c>
+      <c r="S2" t="s">
         <v>350</v>
       </c>
-      <c r="J2" t="s">
-        <v>346</v>
-      </c>
-      <c r="K2" t="s">
-        <v>347</v>
-      </c>
-      <c r="L2" t="s">
-        <v>129</v>
-      </c>
-      <c r="M2" t="s">
-        <v>348</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>351</v>
-      </c>
-      <c r="P2" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>352</v>
-      </c>
-      <c r="R2" t="s">
-        <v>354</v>
-      </c>
-      <c r="S2" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88123261-4998-4785-985D-844CBC6A4066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AAF26B-19A8-4214-85F3-0F62F77C7FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FO_Registration_Page" sheetId="15" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Doctor_Generate_Schedule" sheetId="25" r:id="rId9"/>
     <sheet name="Create_Family" sheetId="26" r:id="rId10"/>
     <sheet name="Doctor_Equiment_Schedule" sheetId="27" r:id="rId11"/>
+    <sheet name="Multiple_Episode_Credit_Limit" sheetId="28" r:id="rId12"/>
+    <sheet name="UnRegister_Patient_List" sheetId="29" r:id="rId13"/>
+    <sheet name="FO_Consent_Page" sheetId="30" r:id="rId14"/>
+    <sheet name="FO_insurance_Document_Page" sheetId="31" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="458">
   <si>
     <t>SANITY HOSPITAL</t>
   </si>
@@ -533,9 +537,6 @@
     <t>A123456789</t>
   </si>
   <si>
-    <t xml:space="preserve">ID Card Missing </t>
-  </si>
-  <si>
     <t>Passport_Number</t>
   </si>
   <si>
@@ -1314,6 +1315,99 @@
   </si>
   <si>
     <t>HIMANSHU</t>
+  </si>
+  <si>
+    <t>New_Credit_Limit</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>To_Date</t>
+  </si>
+  <si>
+    <t>Company_Drp</t>
+  </si>
+  <si>
+    <t>Rete_Contract_Drp</t>
+  </si>
+  <si>
+    <t>Enter_Auth_Claim_Number</t>
+  </si>
+  <si>
+    <t>SPSL.881294</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>Radhakrishna Foodland Pvt Ltd</t>
+  </si>
+  <si>
+    <t>SHELL INDIA PVT LTD</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Frome_Date</t>
+  </si>
+  <si>
+    <t>Select_Tepplate_Drp</t>
+  </si>
+  <si>
+    <t>Doctor_Authentication_user_name</t>
+  </si>
+  <si>
+    <t>Doctor_Authentication_Password</t>
+  </si>
+  <si>
+    <t>SPSL.500</t>
+  </si>
+  <si>
+    <t>Dipti Autopull Concent</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>Enter_OP_Patient_UHID</t>
+  </si>
+  <si>
+    <t>As requested</t>
+  </si>
+  <si>
+    <t>OP_From_Date</t>
+  </si>
+  <si>
+    <t>OP_TO_Date</t>
+  </si>
+  <si>
+    <t>Clame_Report_Popup_left_Upload_Doc_Type_Drp</t>
+  </si>
+  <si>
+    <t>Clame_Report_Popup_left_Upload_Document_Drp</t>
+  </si>
+  <si>
+    <t>Clame_Report_Popup_Right_Upload_Doc_Type_Drp</t>
+  </si>
+  <si>
+    <t>Clame_Report_Popup_Right_Upload_Document_Drp</t>
+  </si>
+  <si>
+    <t>CPR Card</t>
+  </si>
+  <si>
+    <t>DeepakT</t>
+  </si>
+  <si>
+    <t>Enter_Ip_Number</t>
+  </si>
+  <si>
+    <t>8545</t>
   </si>
 </sst>
 </file>
@@ -1656,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E013439-B5E0-44E3-AE81-9E94621FE47E}">
   <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BJ7" sqref="BJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,19 +2015,19 @@
         <v>76</v>
       </c>
       <c r="BL1" t="s">
+        <v>261</v>
+      </c>
+      <c r="BM1" t="s">
         <v>262</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>263</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>264</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>265</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
@@ -1965,7 +2059,7 @@
         <v>43058</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
@@ -2019,25 +2113,25 @@
         <v>166</v>
       </c>
       <c r="AB2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AC2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD2" t="s">
         <v>89</v>
       </c>
       <c r="AE2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AG2" t="s">
         <v>90</v>
       </c>
       <c r="AH2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>109</v>
@@ -2046,7 +2140,7 @@
         <v>91</v>
       </c>
       <c r="AK2" t="s">
-        <v>167</v>
+        <v>447</v>
       </c>
       <c r="AL2" t="s">
         <v>92</v>
@@ -2127,19 +2221,19 @@
         <v>105</v>
       </c>
       <c r="BL2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BM2" t="s">
         <v>267</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>268</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>269</v>
       </c>
       <c r="BO2" s="2">
         <v>46006</v>
       </c>
       <c r="BP2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2184,37 +2278,37 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="E1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H1" t="s">
         <v>378</v>
       </c>
-      <c r="G1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" t="s">
-        <v>379</v>
-      </c>
       <c r="I1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J1" t="s">
         <v>382</v>
       </c>
-      <c r="J1" t="s">
-        <v>383</v>
-      </c>
       <c r="K1" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" t="s">
         <v>386</v>
-      </c>
-      <c r="M1" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2225,34 +2319,34 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G2" s="2">
         <v>46338</v>
       </c>
       <c r="H2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -2267,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B43B7C9-C12A-4E70-BAF8-C89FE3910C09}">
   <dimension ref="A1:AD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection sqref="A1:AD2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,88 +2407,88 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1" t="s">
         <v>392</v>
       </c>
-      <c r="D1" t="s">
-        <v>393</v>
-      </c>
       <c r="E1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" t="s">
         <v>395</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>396</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>397</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>398</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>399</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>400</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>401</v>
       </c>
-      <c r="L1" t="s">
-        <v>402</v>
-      </c>
       <c r="M1" t="s">
+        <v>403</v>
+      </c>
+      <c r="N1" t="s">
         <v>404</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>405</v>
       </c>
-      <c r="O1" t="s">
-        <v>406</v>
-      </c>
       <c r="P1" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q1" t="s">
         <v>410</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>411</v>
       </c>
-      <c r="R1" t="s">
-        <v>412</v>
-      </c>
       <c r="S1" t="s">
+        <v>413</v>
+      </c>
+      <c r="T1" t="s">
         <v>414</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>415</v>
       </c>
-      <c r="U1" t="s">
-        <v>416</v>
-      </c>
       <c r="V1" t="s">
+        <v>417</v>
+      </c>
+      <c r="W1" t="s">
         <v>418</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>419</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>420</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>421</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>422</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>423</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>424</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>425</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
@@ -2405,10 +2499,10 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -2426,67 +2520,67 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="J2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K2" t="s">
         <v>289</v>
       </c>
-      <c r="K2" t="s">
-        <v>290</v>
-      </c>
       <c r="L2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M2" t="s">
+        <v>406</v>
+      </c>
+      <c r="N2" t="s">
         <v>407</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>408</v>
       </c>
-      <c r="O2" t="s">
-        <v>409</v>
-      </c>
       <c r="P2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S2" t="s">
         <v>159</v>
       </c>
       <c r="T2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="V2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="X2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y2" t="s">
         <v>159</v>
       </c>
       <c r="Z2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AA2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AB2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AC2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AD2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2495,12 +2589,325 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E1698-BA95-4A88-8625-5C71995069EA}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" s="2">
+        <v>46029</v>
+      </c>
+      <c r="F2" s="2">
+        <v>46032</v>
+      </c>
+      <c r="G2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H2" t="s">
+        <v>435</v>
+      </c>
+      <c r="I2" t="s">
+        <v>436</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B00FB-DF54-4876-9BC7-4310AF721AAF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45987</v>
+      </c>
+      <c r="D2" s="2">
+        <v>46029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6283E-D0ED-417C-87D9-90DFF5F04C39}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44319</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46382</v>
+      </c>
+      <c r="F2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{2A39A0DC-22E2-43D7-BF1A-CE1FB514C70C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570562F2-A3AF-4158-9099-C7CFF49FA1AC}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46029</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46029</v>
+      </c>
+      <c r="F2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G2" t="s">
+        <v>455</v>
+      </c>
+      <c r="H2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B46374-9208-47E4-93A3-0C8576411B23}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2539,28 +2946,28 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
         <v>168</v>
       </c>
-      <c r="D1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
         <v>171</v>
       </c>
-      <c r="F1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>173</v>
       </c>
-      <c r="H1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>174</v>
-      </c>
-      <c r="J1" t="s">
-        <v>175</v>
       </c>
       <c r="K1" t="s">
         <v>20</v>
@@ -2596,7 +3003,7 @@
         <v>35</v>
       </c>
       <c r="V1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="W1" t="s">
         <v>36</v>
@@ -2625,7 +3032,7 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2">
         <v>46344</v>
@@ -2634,10 +3041,10 @@
         <v>46016</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" t="s">
         <v>177</v>
-      </c>
-      <c r="G2" t="s">
-        <v>178</v>
       </c>
       <c r="H2" s="2">
         <v>45610</v>
@@ -2646,13 +3053,13 @@
         <v>46140</v>
       </c>
       <c r="J2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M2" t="s">
         <v>77</v>
@@ -2679,7 +3086,7 @@
         <v>13</v>
       </c>
       <c r="U2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V2" t="s">
         <v>86</v>
@@ -2779,16 +3186,16 @@
         <v>113</v>
       </c>
       <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
         <v>211</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>212</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>213</v>
-      </c>
-      <c r="G1" t="s">
-        <v>214</v>
       </c>
       <c r="H1" t="s">
         <v>115</v>
@@ -2824,19 +3231,19 @@
         <v>124</v>
       </c>
       <c r="S1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="X1" t="s">
         <v>130</v>
@@ -2845,82 +3252,82 @@
         <v>132</v>
       </c>
       <c r="Z1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA1" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="AC1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AD1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="AF1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="AI1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="AP1" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="AQ1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR1" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>248</v>
-      </c>
       <c r="AU1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -2931,31 +3338,31 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
         <v>215</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>216</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>217</v>
-      </c>
-      <c r="G2" t="s">
-        <v>218</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
       </c>
       <c r="I2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="K2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L2" t="s">
         <v>4</v>
@@ -2964,7 +3371,7 @@
         <v>121</v>
       </c>
       <c r="N2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O2" t="s">
         <v>125</v>
@@ -2982,16 +3389,16 @@
         <v>125</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="W2" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="X2" t="s">
         <v>6</v>
@@ -3006,7 +3413,7 @@
         <v>101</v>
       </c>
       <c r="AB2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC2" t="s">
         <v>103</v>
@@ -3015,67 +3422,67 @@
         <v>45994</v>
       </c>
       <c r="AE2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AF2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI2" t="s">
         <v>234</v>
       </c>
-      <c r="AG2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AK2" t="s">
         <v>235</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN2" t="s">
         <v>236</v>
       </c>
-      <c r="AL2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>237</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="AP2" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="AQ2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AR2" t="s">
         <v>249</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>250</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>251</v>
       </c>
       <c r="AT2" t="s">
         <v>8</v>
       </c>
       <c r="AU2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV2" t="s">
         <v>257</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX2" t="s">
         <v>258</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AY2" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3124,13 +3531,13 @@
         <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="G1" t="s">
         <v>130</v>
@@ -3139,22 +3546,22 @@
         <v>132</v>
       </c>
       <c r="I1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" t="s">
         <v>186</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>187</v>
       </c>
-      <c r="K1" t="s">
-        <v>188</v>
-      </c>
       <c r="L1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" t="s">
         <v>194</v>
-      </c>
-      <c r="M1" t="s">
-        <v>205</v>
-      </c>
-      <c r="N1" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3168,13 +3575,13 @@
         <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -3189,7 +3596,7 @@
         <v>101</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L2" t="s">
         <v>103</v>
@@ -3198,7 +3605,7 @@
         <v>45994</v>
       </c>
       <c r="N2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3252,7 +3659,7 @@
         <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F1" t="s">
         <v>136</v>
@@ -3311,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E2" s="1">
         <v>45993</v>
@@ -3468,28 +3875,28 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1" t="s">
         <v>273</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>274</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>275</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>276</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>277</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>278</v>
-      </c>
-      <c r="J1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3500,10 +3907,10 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -3512,7 +3919,7 @@
         <v>36872</v>
       </c>
       <c r="G2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -3623,226 +4030,226 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" t="s">
         <v>282</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>283</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>284</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>285</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>286</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>287</v>
       </c>
-      <c r="I1" t="s">
-        <v>288</v>
-      </c>
       <c r="J1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K1" t="s">
         <v>291</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>292</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>293</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>294</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>295</v>
       </c>
-      <c r="O1" t="s">
-        <v>296</v>
-      </c>
       <c r="P1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>297</v>
+      </c>
+      <c r="R1" t="s">
         <v>298</v>
       </c>
-      <c r="Q1" t="s">
-        <v>298</v>
-      </c>
-      <c r="R1" t="s">
-        <v>299</v>
-      </c>
       <c r="S1" t="s">
+        <v>300</v>
+      </c>
+      <c r="T1" t="s">
         <v>301</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>302</v>
       </c>
-      <c r="U1" t="s">
-        <v>303</v>
-      </c>
       <c r="V1" t="s">
+        <v>308</v>
+      </c>
+      <c r="W1" t="s">
         <v>309</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>310</v>
       </c>
-      <c r="X1" t="s">
-        <v>311</v>
-      </c>
       <c r="Y1" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z1" t="s">
         <v>314</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>315</v>
       </c>
-      <c r="AA1" t="s">
-        <v>316</v>
-      </c>
       <c r="AB1" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC1" t="s">
         <v>320</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>321</v>
       </c>
-      <c r="AD1" t="s">
-        <v>322</v>
-      </c>
       <c r="AE1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AF1" t="s">
         <v>326</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>327</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>328</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>329</v>
       </c>
-      <c r="AI1" t="s">
-        <v>329</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>330</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>331</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>332</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>333</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>334</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>335</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>336</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>337</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>338</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>339</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>340</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>341</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>342</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>343</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>344</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>345</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>346</v>
       </c>
-      <c r="BA1" t="s">
-        <v>347</v>
-      </c>
       <c r="BB1" t="s">
+        <v>348</v>
+      </c>
+      <c r="BC1" t="s">
         <v>349</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>350</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
+        <v>350</v>
+      </c>
+      <c r="BF1" t="s">
         <v>351</v>
       </c>
-      <c r="BE1" t="s">
-        <v>351</v>
-      </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>352</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>353</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>354</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>355</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>356</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>357</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>358</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>359</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>360</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>361</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>362</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BR1" t="s">
         <v>363</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>364</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>365</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>366</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>367</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>368</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>369</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
@@ -3853,10 +4260,10 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -3874,67 +4281,67 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="J2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K2" t="s">
         <v>289</v>
       </c>
-      <c r="K2" t="s">
-        <v>290</v>
-      </c>
       <c r="L2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M2" t="s">
         <v>159</v>
       </c>
       <c r="N2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T2" t="s">
+        <v>303</v>
+      </c>
+      <c r="U2" t="s">
         <v>304</v>
       </c>
-      <c r="U2" t="s">
-        <v>305</v>
-      </c>
       <c r="V2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="W2" t="s">
+        <v>311</v>
+      </c>
+      <c r="X2" t="s">
         <v>312</v>
       </c>
-      <c r="X2" t="s">
-        <v>313</v>
-      </c>
       <c r="Y2" t="s">
+        <v>317</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA2" t="s">
         <v>318</v>
       </c>
-      <c r="Z2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>319</v>
-      </c>
       <c r="AB2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD2" t="s">
         <v>324</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>325</v>
       </c>
       <c r="AE2" s="6">
         <v>0.4201388888888889</v>
@@ -3943,67 +4350,67 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="AG2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH2" t="s">
         <v>289</v>
       </c>
-      <c r="AH2" t="s">
-        <v>290</v>
-      </c>
       <c r="AI2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AJ2" t="s">
         <v>159</v>
       </c>
       <c r="AK2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AL2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AN2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AO2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AP2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AQ2" t="s">
+        <v>303</v>
+      </c>
+      <c r="AR2" t="s">
         <v>304</v>
       </c>
-      <c r="AR2" t="s">
-        <v>305</v>
-      </c>
       <c r="AS2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AT2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AU2" t="s">
         <v>312</v>
       </c>
-      <c r="AU2" t="s">
-        <v>313</v>
-      </c>
       <c r="AV2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AX2" t="s">
         <v>318</v>
       </c>
-      <c r="AW2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>319</v>
-      </c>
       <c r="AY2" t="s">
+        <v>323</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BA2" t="s">
         <v>324</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>323</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>325</v>
       </c>
       <c r="BB2" s="6">
         <v>0.58333333333333337</v>
@@ -4012,67 +4419,67 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="BD2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BE2" t="s">
         <v>289</v>
       </c>
-      <c r="BE2" t="s">
-        <v>290</v>
-      </c>
       <c r="BF2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BG2" t="s">
         <v>159</v>
       </c>
       <c r="BH2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BI2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BJ2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BK2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="BL2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BM2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BN2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BO2" t="s">
         <v>304</v>
       </c>
-      <c r="BO2" t="s">
-        <v>305</v>
-      </c>
       <c r="BP2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BQ2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BR2" t="s">
         <v>312</v>
       </c>
-      <c r="BR2" t="s">
-        <v>313</v>
-      </c>
       <c r="BS2" t="s">
+        <v>317</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BU2" t="s">
         <v>318</v>
       </c>
-      <c r="BT2" t="s">
-        <v>317</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>319</v>
-      </c>
       <c r="BV2" t="s">
+        <v>323</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BX2" t="s">
         <v>324</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>323</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AAF26B-19A8-4214-85F3-0F62F77C7FDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE22D1-EF73-401E-A263-5D9C0940C039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FO_Registration_Page" sheetId="15" r:id="rId1"/>
@@ -14,15 +14,23 @@
     <sheet name="Fo_Billing_OPD_Pakage" sheetId="20" r:id="rId4"/>
     <sheet name="FO_Appointment_Scheduling" sheetId="18" r:id="rId5"/>
     <sheet name="Merge_UnMerge_Patient" sheetId="21" r:id="rId6"/>
-    <sheet name="Fo_Bills_Utility" sheetId="23" r:id="rId7"/>
-    <sheet name="Mark_Patient_Deceased" sheetId="24" r:id="rId8"/>
-    <sheet name="Doctor_Generate_Schedule" sheetId="25" r:id="rId9"/>
-    <sheet name="Create_Family" sheetId="26" r:id="rId10"/>
-    <sheet name="Doctor_Equiment_Schedule" sheetId="27" r:id="rId11"/>
-    <sheet name="Multiple_Episode_Credit_Limit" sheetId="28" r:id="rId12"/>
-    <sheet name="UnRegister_Patient_List" sheetId="29" r:id="rId13"/>
-    <sheet name="FO_Consent_Page" sheetId="30" r:id="rId14"/>
-    <sheet name="FO_insurance_Document_Page" sheetId="31" r:id="rId15"/>
+    <sheet name="Mark_Patient_Deceased" sheetId="24" r:id="rId7"/>
+    <sheet name="Doctor_Generate_Schedule" sheetId="25" r:id="rId8"/>
+    <sheet name="Doctor_Equiment_Schedule" sheetId="27" r:id="rId9"/>
+    <sheet name="Doctor_Block_Schedule" sheetId="38" r:id="rId10"/>
+    <sheet name="Equiment_Block_Schedule" sheetId="39" r:id="rId11"/>
+    <sheet name="Create_Family" sheetId="26" r:id="rId12"/>
+    <sheet name="Multiple_Episode_Credit_Limit" sheetId="28" r:id="rId13"/>
+    <sheet name="UnRegister_Patient_List" sheetId="29" r:id="rId14"/>
+    <sheet name="FO_Consent_Page" sheetId="30" r:id="rId15"/>
+    <sheet name="FO_insurance_Document_Page" sheetId="31" r:id="rId16"/>
+    <sheet name="ABHA_Pending" sheetId="32" r:id="rId17"/>
+    <sheet name="FO_CustomerEmployee_Dependant" sheetId="33" r:id="rId18"/>
+    <sheet name="Fo_Bills_Utility" sheetId="23" r:id="rId19"/>
+    <sheet name="Fo_Report_Dispatch_Tracking" sheetId="34" r:id="rId20"/>
+    <sheet name="Fo_Deposits" sheetId="35" r:id="rId21"/>
+    <sheet name="Fo_Bills_Refund" sheetId="36" r:id="rId22"/>
+    <sheet name="Fo_Approve_Refunds" sheetId="37" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="681">
   <si>
     <t>SANITY HOSPITAL</t>
   </si>
@@ -693,15 +701,6 @@
     <t>SPSL.884909</t>
   </si>
   <si>
-    <t>DD Pvt Ltd</t>
-  </si>
-  <si>
-    <t>Divyanshu</t>
-  </si>
-  <si>
-    <t>Divyanshu Company Type</t>
-  </si>
-  <si>
     <t>ABHIJEET SAWANT</t>
   </si>
   <si>
@@ -750,9 +749,6 @@
     <t>SAKTI</t>
   </si>
   <si>
-    <t>Anup@123</t>
-  </si>
-  <si>
     <t>Discount_On_bill_Drp</t>
   </si>
   <si>
@@ -1146,9 +1142,6 @@
     <t>Sitting_3_Sun_Remaks</t>
   </si>
   <si>
-    <t>Dhyanchand</t>
-  </si>
-  <si>
     <t>Enter_First_UHID</t>
   </si>
   <si>
@@ -1314,9 +1307,6 @@
     <t>Equiment_sitting_1_Sun_Remaks</t>
   </si>
   <si>
-    <t>HIMANSHU</t>
-  </si>
-  <si>
     <t>New_Credit_Limit</t>
   </si>
   <si>
@@ -1408,6 +1398,693 @@
   </si>
   <si>
     <t>8545</t>
+  </si>
+  <si>
+    <t>Rate_Contract_Drp</t>
+  </si>
+  <si>
+    <t>BUPA INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>BAYER BUSINESS SERVICES</t>
+  </si>
+  <si>
+    <t>Enter_Employee_Number</t>
+  </si>
+  <si>
+    <t>Enter_First_Name</t>
+  </si>
+  <si>
+    <t>Nationality_Drp</t>
+  </si>
+  <si>
+    <t>Enter_DOB</t>
+  </si>
+  <si>
+    <t>Enter_Age</t>
+  </si>
+  <si>
+    <t>ResidenceCard_Type_Drp</t>
+  </si>
+  <si>
+    <t>Enetr_Nationality_Id</t>
+  </si>
+  <si>
+    <t>ABHA</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Add_Employee_Popup_Enter_Employee_Number</t>
+  </si>
+  <si>
+    <t>Add_Employee_First_Name</t>
+  </si>
+  <si>
+    <t>Employee_Status_Tag_Drp</t>
+  </si>
+  <si>
+    <t>Add_Employee_Nationality_Drp</t>
+  </si>
+  <si>
+    <t>Add_Employee_Dob</t>
+  </si>
+  <si>
+    <t>Add_Employee_Age</t>
+  </si>
+  <si>
+    <t>Add_Employee_Gender_Drp</t>
+  </si>
+  <si>
+    <t>Add_Employee_Mobile_no</t>
+  </si>
+  <si>
+    <t>ResidenceCardType_Drp</t>
+  </si>
+  <si>
+    <t>Add_Employee_NationalityId</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>Pan Card</t>
+  </si>
+  <si>
+    <t>A985623147</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>Kamal Adhikari</t>
+  </si>
+  <si>
+    <t>fhg</t>
+  </si>
+  <si>
+    <t>Enter_UHID_Excel_Sheet</t>
+  </si>
+  <si>
+    <t>Serach_Patient_Fron_Date</t>
+  </si>
+  <si>
+    <t>Serach_Patient_TO_Date</t>
+  </si>
+  <si>
+    <t>Refund_User_Name</t>
+  </si>
+  <si>
+    <t>Doctor Not Available</t>
+  </si>
+  <si>
+    <t>Refund_Reason_Drp</t>
+  </si>
+  <si>
+    <t>Refund Reason XYZ</t>
+  </si>
+  <si>
+    <t>Refund_Reason_text</t>
+  </si>
+  <si>
+    <t>Authorised_by_After_Send_Approvel</t>
+  </si>
+  <si>
+    <t>Remaks_Text</t>
+  </si>
+  <si>
+    <t>Bills_Utility_Reason_Drp</t>
+  </si>
+  <si>
+    <t>Mode_Of_Paymet_In_Cash</t>
+  </si>
+  <si>
+    <t>Mode_Of_Paymet_In_Cheque</t>
+  </si>
+  <si>
+    <t>Mode_Of_Paymet_In_Credit_Card</t>
+  </si>
+  <si>
+    <t>Cheque_Number_text</t>
+  </si>
+  <si>
+    <t>Anup1111</t>
+  </si>
+  <si>
+    <t>Cheque_Issue_Date</t>
+  </si>
+  <si>
+    <t>Cheque_Validity_Date</t>
+  </si>
+  <si>
+    <t>Cheque_Branch_Name</t>
+  </si>
+  <si>
+    <t>Credit_card_Number</t>
+  </si>
+  <si>
+    <t>Credit_Card_Type_Drp</t>
+  </si>
+  <si>
+    <t>Credit_Card_Validity_Date</t>
+  </si>
+  <si>
+    <t>Credit_Card_Batch_no</t>
+  </si>
+  <si>
+    <t>Credit_Note_Enter_UHID</t>
+  </si>
+  <si>
+    <t>SPSL.885424</t>
+  </si>
+  <si>
+    <t>Credit_Note_Amount</t>
+  </si>
+  <si>
+    <t>Credit_Note_Authorised_by_drp</t>
+  </si>
+  <si>
+    <t>Credit_Note_Reason_Drp</t>
+  </si>
+  <si>
+    <t>Credit_Note_Remaks_tex</t>
+  </si>
+  <si>
+    <t>Balihar Singh</t>
+  </si>
+  <si>
+    <t>Duplicate Entry</t>
+  </si>
+  <si>
+    <t>Anup Credit Note</t>
+  </si>
+  <si>
+    <t>Enter_Report_Check_UHID</t>
+  </si>
+  <si>
+    <t>Enter_Check_Bills_No</t>
+  </si>
+  <si>
+    <t>Bills_Facility_Drp</t>
+  </si>
+  <si>
+    <t>Verify Lab Report After</t>
+  </si>
+  <si>
+    <t>Report_Status_Unreceived_Drp</t>
+  </si>
+  <si>
+    <t>Report_Status_All_Drp</t>
+  </si>
+  <si>
+    <t>Report_Status_Received_Drp</t>
+  </si>
+  <si>
+    <t>Report_Status_Dispatched_Drp</t>
+  </si>
+  <si>
+    <t>Test_Status_Drp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unreceived </t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Received</t>
+  </si>
+  <si>
+    <t>Dispatched</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verified </t>
+  </si>
+  <si>
+    <t>Test_investigation_Drp</t>
+  </si>
+  <si>
+    <t>Dispach_place_Drp</t>
+  </si>
+  <si>
+    <t>Trio Tree Hopsital 8</t>
+  </si>
+  <si>
+    <t>Enter_Deposite_UHID</t>
+  </si>
+  <si>
+    <t>Enter_Deposite_CardNo</t>
+  </si>
+  <si>
+    <t>Enter_Deposit_Amount</t>
+  </si>
+  <si>
+    <t>Deposit_Remarks_ext</t>
+  </si>
+  <si>
+    <t>Received_From_After_Edit</t>
+  </si>
+  <si>
+    <t>Relationship_drp</t>
+  </si>
+  <si>
+    <t>deposit_Type_drp</t>
+  </si>
+  <si>
+    <t>Cheque_Number</t>
+  </si>
+  <si>
+    <t>Credit_card_no</t>
+  </si>
+  <si>
+    <t>Credit_bank_name_Drp</t>
+  </si>
+  <si>
+    <t>Credit_Transaction_id</t>
+  </si>
+  <si>
+    <t>Credit_other_details</t>
+  </si>
+  <si>
+    <t>Change_deposit_Type_drp</t>
+  </si>
+  <si>
+    <t>NO Idea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anup Deposit </t>
+  </si>
+  <si>
+    <t>Ashutosh</t>
+  </si>
+  <si>
+    <t>Security Deposit</t>
+  </si>
+  <si>
+    <t>C98765</t>
+  </si>
+  <si>
+    <t>Credit_card_type_drp</t>
+  </si>
+  <si>
+    <t>MASTERO</t>
+  </si>
+  <si>
+    <t>Anup Credit Card</t>
+  </si>
+  <si>
+    <t>Pre-Admission Deposit</t>
+  </si>
+  <si>
+    <t>Enter_Refund_Amount</t>
+  </si>
+  <si>
+    <t>Payable_Name</t>
+  </si>
+  <si>
+    <t>Remarks_Refund</t>
+  </si>
+  <si>
+    <t>Available_Refund_Amount</t>
+  </si>
+  <si>
+    <t>Credit_Card_Number</t>
+  </si>
+  <si>
+    <t>Credit_Card_Bank_Name_Drp</t>
+  </si>
+  <si>
+    <t>Credit_Card_Branch_Name</t>
+  </si>
+  <si>
+    <t>Credit_Card_Available_Refund_Amount</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>Auto Captcher</t>
+  </si>
+  <si>
+    <t>RuPay</t>
+  </si>
+  <si>
+    <t>ANDHRA BANK</t>
+  </si>
+  <si>
+    <t>Enter_Receipt_Utility_UHID</t>
+  </si>
+  <si>
+    <t>Enter_Receipt_Number</t>
+  </si>
+  <si>
+    <t>OPDP3164</t>
+  </si>
+  <si>
+    <t>SPSL.885416</t>
+  </si>
+  <si>
+    <t>Refund_Reason_Drp_Pop</t>
+  </si>
+  <si>
+    <t>Refund_Remarks_Pop</t>
+  </si>
+  <si>
+    <t>Receipt_To_Date</t>
+  </si>
+  <si>
+    <t>Receipt_From_Date</t>
+  </si>
+  <si>
+    <t>Excess Deposit</t>
+  </si>
+  <si>
+    <t>Remaks Deposit Pop</t>
+  </si>
+  <si>
+    <t>Enter_Refund_UHID</t>
+  </si>
+  <si>
+    <t>SPSl.885448</t>
+  </si>
+  <si>
+    <t>Bills_RefundFrom_Date</t>
+  </si>
+  <si>
+    <t>Bills_Refund_To_Date</t>
+  </si>
+  <si>
+    <t>Deposit_Refund_From_Date</t>
+  </si>
+  <si>
+    <t>Deposit_Refund_To_Date</t>
+  </si>
+  <si>
+    <t>Doctor_Drp</t>
+  </si>
+  <si>
+    <t>Current_Block_Frome_Date</t>
+  </si>
+  <si>
+    <t>Block_To_Date</t>
+  </si>
+  <si>
+    <t>Monday_From_Time</t>
+  </si>
+  <si>
+    <t>Monday_To_Time</t>
+  </si>
+  <si>
+    <t>Monday_Remaks</t>
+  </si>
+  <si>
+    <t>Tuesday_From_Time</t>
+  </si>
+  <si>
+    <t>Tuesday_To_Time</t>
+  </si>
+  <si>
+    <t>Tuesday_Remaks</t>
+  </si>
+  <si>
+    <t>Wednesday_From_Time</t>
+  </si>
+  <si>
+    <t>Wednesday_To_Time</t>
+  </si>
+  <si>
+    <t>Wednesday_Remaks</t>
+  </si>
+  <si>
+    <t>Thursday_From_Time</t>
+  </si>
+  <si>
+    <t>Thursday_To_Time</t>
+  </si>
+  <si>
+    <t>Thursday_Remaks</t>
+  </si>
+  <si>
+    <t>Friday_From_Time</t>
+  </si>
+  <si>
+    <t>Friday_To_Time</t>
+  </si>
+  <si>
+    <t>Friday_Remaks</t>
+  </si>
+  <si>
+    <t>Saturday_From_Time</t>
+  </si>
+  <si>
+    <t>Saturday_To_Time</t>
+  </si>
+  <si>
+    <t>Saturday_Remaks</t>
+  </si>
+  <si>
+    <t>Sunday_From_Time</t>
+  </si>
+  <si>
+    <t>Sunday_To_Time</t>
+  </si>
+  <si>
+    <t>Sunday_Remaks</t>
+  </si>
+  <si>
+    <t>Remarks_Text</t>
+  </si>
+  <si>
+    <t>Employee151</t>
+  </si>
+  <si>
+    <t>Equipment_Drp</t>
+  </si>
+  <si>
+    <t>Current_Equiment_Frome_Date</t>
+  </si>
+  <si>
+    <t>Equiment_To_Date</t>
+  </si>
+  <si>
+    <t>Equiment_Monday_From_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Monday_To_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Monday_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_Tuesday_From_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Tuesday_To_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Tuesday_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_Wednesday_From_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Wednesday_To_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Wednesday_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_Thursday_From_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Thursday_To_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Thursday_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_Friday_From_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Friday_To_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Friday_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_Saturday_From_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Saturday_To_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Saturday_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_Sunday_From_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Sunday_To_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Sunday_Remaks</t>
+  </si>
+  <si>
+    <t>EQUIPMENT SURGERY</t>
+  </si>
+  <si>
+    <t>Automation Equiment</t>
+  </si>
+  <si>
+    <t>Equiment_mapping_Sitting_2_From_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Mapping_Sitting_2_To_Time</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Mon_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Mon_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Tue_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Tue_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Tue_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Wed_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Wed_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Wed_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Thu_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Thu_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Thu_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Fri_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Fri_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Fri_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Sat_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Sat_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Sat_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Sun_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Sun_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Sun_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_mapping_Sitting_3_From_Time</t>
+  </si>
+  <si>
+    <t>Equiment_Mapping_Sitting_3_To_Time</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Mon_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Mon_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Mon_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Tue_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Tue_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Tue_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Wed_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Wed_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Wed_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Thu_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Thu_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Thu_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Fri_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Fri_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Fri_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Sat_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Sat_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Sat_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Sun_Appo</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Sun_Clinic_Type</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_3_Sun_Remaks</t>
+  </si>
+  <si>
+    <t>Equiment_sitting_2_Mon_Appo</t>
+  </si>
+  <si>
+    <t>post discharge followup</t>
+  </si>
+  <si>
+    <t>New Clinic</t>
+  </si>
+  <si>
+    <t>Employee153</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +2428,7 @@
   <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BJ7" sqref="BJ7"/>
+      <selection activeCell="BN5" sqref="BN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,9 +2460,10 @@
     <col min="25" max="25" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="17.7109375" customWidth="1"/>
-    <col min="28" max="29" width="19" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="25.28515625" bestFit="1" customWidth="1"/>
@@ -2015,19 +2693,19 @@
         <v>76</v>
       </c>
       <c r="BL1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>258</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>259</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>260</v>
+      </c>
+      <c r="BP1" t="s">
         <v>261</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>262</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>264</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:68" x14ac:dyDescent="0.25">
@@ -2113,16 +2791,16 @@
         <v>166</v>
       </c>
       <c r="AB2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="AC2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AD2" t="s">
-        <v>89</v>
+        <v>480</v>
       </c>
       <c r="AE2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AF2" t="s">
         <v>209</v>
@@ -2140,7 +2818,7 @@
         <v>91</v>
       </c>
       <c r="AK2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="AL2" t="s">
         <v>92</v>
@@ -2203,7 +2881,7 @@
         <v>111</v>
       </c>
       <c r="BF2" t="s">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="BG2" t="s">
         <v>104</v>
@@ -2221,19 +2899,19 @@
         <v>105</v>
       </c>
       <c r="BL2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="BM2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="BN2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="BO2" s="2">
         <v>46006</v>
       </c>
       <c r="BP2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2246,6 +2924,427 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46148C05-C04B-4E7E-94E2-DC780A851127}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M1" t="s">
+        <v>588</v>
+      </c>
+      <c r="N1" t="s">
+        <v>589</v>
+      </c>
+      <c r="O1" t="s">
+        <v>590</v>
+      </c>
+      <c r="P1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R1" t="s">
+        <v>593</v>
+      </c>
+      <c r="S1" t="s">
+        <v>594</v>
+      </c>
+      <c r="T1" t="s">
+        <v>595</v>
+      </c>
+      <c r="U1" t="s">
+        <v>596</v>
+      </c>
+      <c r="V1" t="s">
+        <v>597</v>
+      </c>
+      <c r="W1" t="s">
+        <v>598</v>
+      </c>
+      <c r="X1" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46039</v>
+      </c>
+      <c r="G2" s="1">
+        <v>46046</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="M2" t="s">
+        <v>560</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="S2" t="s">
+        <v>560</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>560</v>
+      </c>
+      <c r="W2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X2" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9148F193-E5B1-44DD-AACF-3C8D6C43B547}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H1" t="s">
+        <v>611</v>
+      </c>
+      <c r="I1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J1" t="s">
+        <v>613</v>
+      </c>
+      <c r="K1" t="s">
+        <v>614</v>
+      </c>
+      <c r="L1" t="s">
+        <v>615</v>
+      </c>
+      <c r="M1" t="s">
+        <v>616</v>
+      </c>
+      <c r="N1" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" t="s">
+        <v>618</v>
+      </c>
+      <c r="P1" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>620</v>
+      </c>
+      <c r="R1" t="s">
+        <v>621</v>
+      </c>
+      <c r="S1" t="s">
+        <v>622</v>
+      </c>
+      <c r="T1" t="s">
+        <v>623</v>
+      </c>
+      <c r="U1" t="s">
+        <v>624</v>
+      </c>
+      <c r="V1" t="s">
+        <v>625</v>
+      </c>
+      <c r="W1" t="s">
+        <v>626</v>
+      </c>
+      <c r="X1" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46047</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>631</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N2" t="s">
+        <v>631</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>631</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="S2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>631</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W2" t="s">
+        <v>631</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B5F3C8-A44F-4566-9A7F-EF954EF0F8B8}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -2278,37 +3377,37 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" t="s">
         <v>371</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" t="s">
-        <v>374</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" t="s">
         <v>377</v>
       </c>
-      <c r="G1" t="s">
-        <v>376</v>
-      </c>
-      <c r="H1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="M1" t="s">
         <v>381</v>
-      </c>
-      <c r="J1" t="s">
-        <v>382</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="M1" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -2319,34 +3418,34 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G2" s="2">
         <v>46338</v>
       </c>
       <c r="H2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="I2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="J2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -2357,239 +3456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B43B7C9-C12A-4E70-BAF8-C89FE3910C09}">
-  <dimension ref="A1:AD2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="31" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I1" t="s">
-        <v>398</v>
-      </c>
-      <c r="J1" t="s">
-        <v>399</v>
-      </c>
-      <c r="K1" t="s">
-        <v>400</v>
-      </c>
-      <c r="L1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M1" t="s">
-        <v>403</v>
-      </c>
-      <c r="N1" t="s">
-        <v>404</v>
-      </c>
-      <c r="O1" t="s">
-        <v>405</v>
-      </c>
-      <c r="P1" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>410</v>
-      </c>
-      <c r="R1" t="s">
-        <v>411</v>
-      </c>
-      <c r="S1" t="s">
-        <v>413</v>
-      </c>
-      <c r="T1" t="s">
-        <v>414</v>
-      </c>
-      <c r="U1" t="s">
-        <v>415</v>
-      </c>
-      <c r="V1" t="s">
-        <v>417</v>
-      </c>
-      <c r="W1" t="s">
-        <v>418</v>
-      </c>
-      <c r="X1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>420</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>422</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>423</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>424</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>46016</v>
-      </c>
-      <c r="G2" s="2">
-        <v>46023</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="J2" t="s">
-        <v>288</v>
-      </c>
-      <c r="K2" t="s">
-        <v>289</v>
-      </c>
-      <c r="L2" t="s">
-        <v>402</v>
-      </c>
-      <c r="M2" t="s">
-        <v>406</v>
-      </c>
-      <c r="N2" t="s">
-        <v>407</v>
-      </c>
-      <c r="O2" t="s">
-        <v>408</v>
-      </c>
-      <c r="P2" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>303</v>
-      </c>
-      <c r="R2" t="s">
-        <v>412</v>
-      </c>
-      <c r="S2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T2" t="s">
-        <v>311</v>
-      </c>
-      <c r="U2" t="s">
-        <v>416</v>
-      </c>
-      <c r="V2" t="s">
-        <v>323</v>
-      </c>
-      <c r="W2" t="s">
-        <v>303</v>
-      </c>
-      <c r="X2" t="s">
-        <v>412</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>159</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>416</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>412</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E1698-BA95-4A88-8625-5C71995069EA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -2622,25 +3489,25 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G1" t="s">
         <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="I1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2651,10 +3518,10 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E2" s="2">
         <v>46029</v>
@@ -2663,16 +3530,16 @@
         <v>46032</v>
       </c>
       <c r="G2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H2" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="I2" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +3547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B00FB-DF54-4876-9BC7-4310AF721AAF}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2704,10 +3571,10 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2730,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6283E-D0ED-417C-87D9-90DFF5F04C39}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2761,19 +3628,19 @@
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="E1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="H1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2784,7 +3651,7 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D2" s="1">
         <v>44319</v>
@@ -2793,13 +3660,13 @@
         <v>46382</v>
       </c>
       <c r="F2" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -2811,12 +3678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570562F2-A3AF-4158-9099-C7CFF49FA1AC}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2841,28 +3708,28 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" t="s">
         <v>446</v>
       </c>
-      <c r="D1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="G1" t="s">
-        <v>451</v>
-      </c>
-      <c r="H1" t="s">
-        <v>452</v>
-      </c>
-      <c r="I1" t="s">
-        <v>453</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2873,7 +3740,7 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="D2" s="1">
         <v>46029</v>
@@ -2882,23 +3749,465 @@
         <v>46029</v>
       </c>
       <c r="F2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H2" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I2" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77349D39-81E3-4853-B70F-176D2F56631C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45553779-9EBF-482E-B742-5CD5AF1A58A8}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection sqref="A1:Z2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="N1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>464</v>
+      </c>
+      <c r="R1" t="s">
+        <v>465</v>
+      </c>
+      <c r="S1" t="s">
+        <v>466</v>
+      </c>
+      <c r="T1" t="s">
+        <v>467</v>
+      </c>
+      <c r="U1" t="s">
+        <v>468</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="W1" t="s">
+        <v>470</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <v>38725</v>
+      </c>
+      <c r="K2">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" t="s">
+        <v>462</v>
+      </c>
+      <c r="O2">
+        <v>987</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>375</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>474</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1">
+        <v>37418</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDDB6A7-3A1E-4534-A8F8-E72B7F36388F}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J1" t="s">
+        <v>489</v>
+      </c>
+      <c r="K1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L1" t="s">
+        <v>490</v>
+      </c>
+      <c r="M1" t="s">
+        <v>492</v>
+      </c>
+      <c r="N1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O1" t="s">
+        <v>494</v>
+      </c>
+      <c r="P1" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S1" t="s">
+        <v>498</v>
+      </c>
+      <c r="T1" t="s">
+        <v>499</v>
+      </c>
+      <c r="U1" t="s">
+        <v>500</v>
+      </c>
+      <c r="V1" t="s">
+        <v>501</v>
+      </c>
+      <c r="W1" t="s">
+        <v>502</v>
+      </c>
+      <c r="X1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46034</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46034</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P2" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>46034</v>
+      </c>
+      <c r="R2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S2" s="1">
+        <v>46065</v>
+      </c>
+      <c r="T2" t="s">
+        <v>275</v>
+      </c>
+      <c r="U2">
+        <v>9876543210</v>
+      </c>
+      <c r="V2" t="s">
+        <v>253</v>
+      </c>
+      <c r="W2" s="1">
+        <v>46024</v>
+      </c>
+      <c r="X2">
+        <v>123456</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z2">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{82C62593-23AC-4DF2-8E1D-9D6ECF2E2848}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3115,12 +4424,526 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9BA597-AED7-4890-A19E-2192DCB1C412}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K1" t="s">
+        <v>520</v>
+      </c>
+      <c r="L1" t="s">
+        <v>521</v>
+      </c>
+      <c r="M1" t="s">
+        <v>527</v>
+      </c>
+      <c r="N1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45963</v>
+      </c>
+      <c r="G2" s="1">
+        <v>46035</v>
+      </c>
+      <c r="H2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K2" t="s">
+        <v>525</v>
+      </c>
+      <c r="L2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CBBACD-D37E-4F62-B405-4E2D5089BB62}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I1" t="s">
+        <v>536</v>
+      </c>
+      <c r="J1" t="s">
+        <v>537</v>
+      </c>
+      <c r="K1" t="s">
+        <v>497</v>
+      </c>
+      <c r="L1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N1" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" t="s">
+        <v>548</v>
+      </c>
+      <c r="P1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R1" t="s">
+        <v>541</v>
+      </c>
+      <c r="S1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J2">
+        <v>123456</v>
+      </c>
+      <c r="K2" s="1">
+        <v>46036</v>
+      </c>
+      <c r="L2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>547</v>
+      </c>
+      <c r="O2" t="s">
+        <v>549</v>
+      </c>
+      <c r="P2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2">
+        <v>65432</v>
+      </c>
+      <c r="R2" t="s">
+        <v>550</v>
+      </c>
+      <c r="S2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CB538D-8345-4E93-9966-9760DD804035}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L1" t="s">
+        <v>556</v>
+      </c>
+      <c r="M1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N1" t="s">
+        <v>557</v>
+      </c>
+      <c r="O1" t="s">
+        <v>558</v>
+      </c>
+      <c r="P1" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>564</v>
+      </c>
+      <c r="R1" t="s">
+        <v>565</v>
+      </c>
+      <c r="S1" t="s">
+        <v>571</v>
+      </c>
+      <c r="T1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U1" t="s">
+        <v>568</v>
+      </c>
+      <c r="V1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2">
+        <v>1122</v>
+      </c>
+      <c r="H2" s="1">
+        <v>46036</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" t="s">
+        <v>561</v>
+      </c>
+      <c r="L2">
+        <v>9988</v>
+      </c>
+      <c r="M2" t="s">
+        <v>562</v>
+      </c>
+      <c r="N2" t="s">
+        <v>563</v>
+      </c>
+      <c r="O2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P2">
+        <v>1000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>567</v>
+      </c>
+      <c r="R2" t="s">
+        <v>566</v>
+      </c>
+      <c r="S2" s="1">
+        <v>46023</v>
+      </c>
+      <c r="T2" s="1">
+        <v>46037</v>
+      </c>
+      <c r="U2" t="s">
+        <v>572</v>
+      </c>
+      <c r="V2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0392C8-D1C2-4550-B104-1A1623DD4842}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46023</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46037</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45957</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373D655A-26ED-4DBB-8B5A-A69FDF4C415A}">
   <dimension ref="A1:AY2"/>
   <sheetViews>
     <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AV13" sqref="AV12:AV13"/>
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3270,64 +5093,64 @@
         <v>194</v>
       </c>
       <c r="AF1" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AG1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>245</v>
-      </c>
       <c r="AS1" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AT1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU1" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY1" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
@@ -3356,10 +5179,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K2" t="s">
         <v>190</v>
@@ -3425,64 +5248,64 @@
         <v>196</v>
       </c>
       <c r="AF2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AN2" t="s">
         <v>233</v>
       </c>
-      <c r="AG2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AI2" t="s">
+      <c r="AO2" t="s">
         <v>234</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>237</v>
-      </c>
       <c r="AP2" s="5" t="s">
-        <v>238</v>
+        <v>439</v>
       </c>
       <c r="AQ2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AR2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AS2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AT2" t="s">
         <v>8</v>
       </c>
       <c r="AU2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY2" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E2" s="1">
         <v>45993</v>
@@ -3811,41 +5634,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDDB6A7-3A1E-4534-A8F8-E72B7F36388F}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BDD2E4-D8BA-4F2E-B68E-E28738CABBDF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -3875,28 +5663,28 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" t="s">
         <v>272</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>273</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>274</v>
-      </c>
-      <c r="G1" t="s">
-        <v>275</v>
-      </c>
-      <c r="H1" t="s">
-        <v>276</v>
-      </c>
-      <c r="I1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3907,10 +5695,10 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
         <v>79</v>
@@ -3919,7 +5707,7 @@
         <v>36872</v>
       </c>
       <c r="G2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -3936,12 +5724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA277297-A5C9-4C74-A1D8-77D80FFE5D36}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="BS1" workbookViewId="0">
+      <selection sqref="A1:BX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4030,226 +5818,226 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" t="s">
         <v>281</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>282</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>283</v>
       </c>
-      <c r="F1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1" t="s">
-        <v>285</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>286</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>287</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N1" t="s">
         <v>290</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>291</v>
       </c>
-      <c r="L1" t="s">
-        <v>292</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>293</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
+        <v>293</v>
+      </c>
+      <c r="R1" t="s">
         <v>294</v>
       </c>
-      <c r="O1" t="s">
-        <v>295</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T1" t="s">
         <v>297</v>
       </c>
-      <c r="Q1" t="s">
-        <v>297</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>298</v>
       </c>
-      <c r="S1" t="s">
-        <v>300</v>
-      </c>
-      <c r="T1" t="s">
-        <v>301</v>
-      </c>
-      <c r="U1" t="s">
-        <v>302</v>
-      </c>
       <c r="V1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="W1" t="s">
+        <v>305</v>
+      </c>
+      <c r="X1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y1" t="s">
         <v>309</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>310</v>
       </c>
-      <c r="Y1" t="s">
-        <v>313</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>314</v>
-      </c>
       <c r="AA1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB1" t="s">
         <v>315</v>
       </c>
-      <c r="AB1" t="s">
-        <v>319</v>
-      </c>
       <c r="AC1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AD1" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE1" t="s">
         <v>321</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>325</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>326</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>327</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>328</v>
       </c>
-      <c r="AI1" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>329</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AO1" t="s">
         <v>330</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AP1" t="s">
         <v>331</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AQ1" t="s">
         <v>332</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AR1" t="s">
         <v>333</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AS1" t="s">
         <v>334</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AT1" t="s">
         <v>335</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AU1" t="s">
         <v>336</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AV1" t="s">
         <v>337</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AW1" t="s">
         <v>338</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AX1" t="s">
         <v>339</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AY1" t="s">
         <v>340</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AZ1" t="s">
         <v>341</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BA1" t="s">
         <v>342</v>
       </c>
-      <c r="AX1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>344</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>345</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>346</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
+        <v>346</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG1" t="s">
         <v>348</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BH1" t="s">
         <v>349</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BI1" t="s">
         <v>350</v>
       </c>
-      <c r="BE1" t="s">
-        <v>350</v>
-      </c>
-      <c r="BF1" t="s">
+      <c r="BJ1" t="s">
         <v>351</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BK1" t="s">
         <v>352</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BL1" t="s">
         <v>353</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BM1" t="s">
         <v>354</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BN1" t="s">
         <v>355</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BO1" t="s">
         <v>356</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BP1" t="s">
         <v>357</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BQ1" t="s">
         <v>358</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BR1" t="s">
         <v>359</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BS1" t="s">
         <v>360</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BT1" t="s">
         <v>361</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
         <v>362</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BV1" t="s">
         <v>363</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BW1" t="s">
         <v>364</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BX1" t="s">
         <v>365</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>366</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>367</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>368</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:76" x14ac:dyDescent="0.25">
@@ -4260,88 +6048,88 @@
         <v>106</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>680</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>46024</v>
+        <v>46040</v>
       </c>
       <c r="G2" s="2">
-        <v>46031</v>
+        <v>46047</v>
       </c>
       <c r="H2" s="6">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I2" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="J2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M2" t="s">
         <v>159</v>
       </c>
       <c r="N2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>292</v>
+      </c>
+      <c r="R2" t="s">
+        <v>301</v>
+      </c>
+      <c r="S2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T2" t="s">
         <v>299</v>
       </c>
-      <c r="Q2" t="s">
-        <v>296</v>
-      </c>
-      <c r="R2" t="s">
-        <v>305</v>
-      </c>
-      <c r="S2" t="s">
-        <v>288</v>
-      </c>
-      <c r="T2" t="s">
-        <v>303</v>
-      </c>
       <c r="U2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="V2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="W2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="X2" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>313</v>
+      </c>
+      <c r="Z2" t="s">
         <v>312</v>
       </c>
-      <c r="Y2" t="s">
-        <v>317</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>316</v>
-      </c>
       <c r="AA2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC2" t="s">
         <v>318</v>
       </c>
-      <c r="AB2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>322</v>
-      </c>
       <c r="AD2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AE2" s="6">
         <v>0.4201388888888889</v>
@@ -4350,67 +6138,67 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="AG2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AH2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AI2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AJ2" t="s">
         <v>159</v>
       </c>
       <c r="AK2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="AL2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="AM2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>299</v>
       </c>
-      <c r="AN2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>305</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>303</v>
-      </c>
       <c r="AR2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AS2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AT2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AU2" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW2" t="s">
         <v>312</v>
       </c>
-      <c r="AV2" t="s">
-        <v>317</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>316</v>
-      </c>
       <c r="AX2" t="s">
+        <v>314</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>319</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>318</v>
       </c>
-      <c r="AY2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>322</v>
-      </c>
       <c r="BA2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BB2" s="6">
         <v>0.58333333333333337</v>
@@ -4419,67 +6207,620 @@
         <v>0.95833333333333337</v>
       </c>
       <c r="BD2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="BE2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="BF2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="BG2" t="s">
         <v>159</v>
       </c>
       <c r="BH2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="BI2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="BJ2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>292</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>284</v>
+      </c>
+      <c r="BN2" t="s">
         <v>299</v>
       </c>
+      <c r="BO2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>307</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>308</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>313</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>314</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>319</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>318</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B43B7C9-C12A-4E70-BAF8-C89FE3910C09}">
+  <dimension ref="A1:BX2"/>
+  <sheetViews>
+    <sheetView topLeftCell="BS1" workbookViewId="0">
+      <selection activeCell="BU11" sqref="BU11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="31" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="39" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="31" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="30" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="39" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="31" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="31" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="30" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K1" t="s">
+        <v>395</v>
+      </c>
+      <c r="L1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M1" t="s">
+        <v>398</v>
+      </c>
+      <c r="N1" t="s">
+        <v>399</v>
+      </c>
+      <c r="O1" t="s">
+        <v>400</v>
+      </c>
+      <c r="P1" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R1" t="s">
+        <v>406</v>
+      </c>
+      <c r="S1" t="s">
+        <v>408</v>
+      </c>
+      <c r="T1" t="s">
+        <v>409</v>
+      </c>
+      <c r="U1" t="s">
+        <v>410</v>
+      </c>
+      <c r="V1" t="s">
+        <v>412</v>
+      </c>
+      <c r="W1" t="s">
+        <v>413</v>
+      </c>
+      <c r="X1" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>418</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>632</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>633</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>677</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>634</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>638</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>639</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>643</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>645</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>646</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>647</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>648</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>650</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>651</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>652</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>653</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>654</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>655</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>656</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>657</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>658</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>659</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>660</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>661</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>662</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>663</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>664</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>665</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>666</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>667</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>668</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>669</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>670</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>671</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>672</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>673</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>674</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>675</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>46040</v>
+      </c>
+      <c r="G2" s="2">
+        <v>46047</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M2" t="s">
+        <v>401</v>
+      </c>
+      <c r="N2" t="s">
+        <v>402</v>
+      </c>
+      <c r="O2" t="s">
+        <v>403</v>
+      </c>
+      <c r="P2" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>299</v>
+      </c>
+      <c r="R2" t="s">
+        <v>407</v>
+      </c>
+      <c r="S2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" t="s">
+        <v>307</v>
+      </c>
+      <c r="U2" t="s">
+        <v>411</v>
+      </c>
+      <c r="V2" t="s">
+        <v>319</v>
+      </c>
+      <c r="W2" t="s">
+        <v>299</v>
+      </c>
+      <c r="X2" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AE2" s="6">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>407</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>679</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BB2" s="6">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="BC2" s="6">
+        <v>0.99305555555555547</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>407</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>401</v>
+      </c>
       <c r="BK2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="BL2" t="s">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="BM2" t="s">
-        <v>288</v>
+        <v>678</v>
       </c>
       <c r="BN2" t="s">
-        <v>303</v>
+        <v>679</v>
       </c>
       <c r="BO2" t="s">
-        <v>304</v>
+        <v>407</v>
       </c>
       <c r="BP2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>299</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>311</v>
-      </c>
       <c r="BR2" t="s">
-        <v>312</v>
+        <v>407</v>
       </c>
       <c r="BS2" t="s">
-        <v>317</v>
+        <v>401</v>
       </c>
       <c r="BT2" t="s">
-        <v>316</v>
+        <v>679</v>
       </c>
       <c r="BU2" t="s">
-        <v>318</v>
+        <v>407</v>
       </c>
       <c r="BV2" t="s">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="BW2" t="s">
-        <v>322</v>
+        <v>679</v>
       </c>
       <c r="BX2" t="s">
-        <v>324</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE22D1-EF73-401E-A263-5D9C0940C039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5B9C85-D855-46BC-BD93-C7175F0E19F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="19" activeTab="22" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="28" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FO_Registration_Page" sheetId="15" r:id="rId1"/>
@@ -13,24 +13,33 @@
     <sheet name="FO_Billing_Page" sheetId="17" r:id="rId3"/>
     <sheet name="Fo_Billing_OPD_Pakage" sheetId="20" r:id="rId4"/>
     <sheet name="FO_Appointment_Scheduling" sheetId="18" r:id="rId5"/>
-    <sheet name="Merge_UnMerge_Patient" sheetId="21" r:id="rId6"/>
-    <sheet name="Mark_Patient_Deceased" sheetId="24" r:id="rId7"/>
-    <sheet name="Doctor_Generate_Schedule" sheetId="25" r:id="rId8"/>
-    <sheet name="Doctor_Equiment_Schedule" sheetId="27" r:id="rId9"/>
-    <sheet name="Doctor_Block_Schedule" sheetId="38" r:id="rId10"/>
-    <sheet name="Equiment_Block_Schedule" sheetId="39" r:id="rId11"/>
-    <sheet name="Create_Family" sheetId="26" r:id="rId12"/>
-    <sheet name="Multiple_Episode_Credit_Limit" sheetId="28" r:id="rId13"/>
-    <sheet name="UnRegister_Patient_List" sheetId="29" r:id="rId14"/>
-    <sheet name="FO_Consent_Page" sheetId="30" r:id="rId15"/>
-    <sheet name="FO_insurance_Document_Page" sheetId="31" r:id="rId16"/>
-    <sheet name="ABHA_Pending" sheetId="32" r:id="rId17"/>
-    <sheet name="FO_CustomerEmployee_Dependant" sheetId="33" r:id="rId18"/>
-    <sheet name="Fo_Bills_Utility" sheetId="23" r:id="rId19"/>
-    <sheet name="Fo_Report_Dispatch_Tracking" sheetId="34" r:id="rId20"/>
-    <sheet name="Fo_Deposits" sheetId="35" r:id="rId21"/>
-    <sheet name="Fo_Bills_Refund" sheetId="36" r:id="rId22"/>
-    <sheet name="Fo_Approve_Refunds" sheetId="37" r:id="rId23"/>
+    <sheet name="FO_Appointment_Equipment_Schedu" sheetId="42" r:id="rId6"/>
+    <sheet name="FO_HealthCheckupPackagePlan" sheetId="43" r:id="rId7"/>
+    <sheet name="Doctor_Schedule_Current_Status" sheetId="41" r:id="rId8"/>
+    <sheet name="Merge_UnMerge_Patient" sheetId="21" r:id="rId9"/>
+    <sheet name="Mark_Patient_Deceased" sheetId="24" r:id="rId10"/>
+    <sheet name="Doctor_Generate_Schedule" sheetId="25" r:id="rId11"/>
+    <sheet name="Doctor_Equiment_Schedule" sheetId="27" r:id="rId12"/>
+    <sheet name="Doctor_Block_Schedule" sheetId="38" r:id="rId13"/>
+    <sheet name="Equiment_Block_Schedule" sheetId="39" r:id="rId14"/>
+    <sheet name="Create_Family" sheetId="26" r:id="rId15"/>
+    <sheet name="Multiple_Episode_Credit_Limit" sheetId="28" r:id="rId16"/>
+    <sheet name="UnRegister_Patient_List" sheetId="29" r:id="rId17"/>
+    <sheet name="FO_Consent_Page" sheetId="30" r:id="rId18"/>
+    <sheet name="FO_insurance_Document_Page" sheetId="31" r:id="rId19"/>
+    <sheet name="ABHA_Pending" sheetId="32" r:id="rId20"/>
+    <sheet name="FO_CustomerEmployee_Dependant" sheetId="33" r:id="rId21"/>
+    <sheet name="Fo_Bills_Utility" sheetId="23" r:id="rId22"/>
+    <sheet name="Fo_Bills_Utility_Dues_Settlemen" sheetId="40" r:id="rId23"/>
+    <sheet name="Fo_Report_Dispatch_Tracking" sheetId="34" r:id="rId24"/>
+    <sheet name="Fo_Deposits" sheetId="35" r:id="rId25"/>
+    <sheet name="Fo_Bills_Refund" sheetId="36" r:id="rId26"/>
+    <sheet name="Fo_Approve_Refunds" sheetId="37" r:id="rId27"/>
+    <sheet name="FO_Report_Common_Scroll" sheetId="44" r:id="rId28"/>
+    <sheet name="FO_Patient_Document" sheetId="45" r:id="rId29"/>
+    <sheet name="FO_Modify_Bill" sheetId="46" r:id="rId30"/>
+    <sheet name="FO_Patient_Queue" sheetId="47" r:id="rId31"/>
+    <sheet name="FO_Consultation_Queue" sheetId="48" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="768">
   <si>
     <t>SANITY HOSPITAL</t>
   </si>
@@ -2085,6 +2094,267 @@
   </si>
   <si>
     <t>Employee153</t>
+  </si>
+  <si>
+    <t>Enter_Dues_Settlement_Amount</t>
+  </si>
+  <si>
+    <t>Enter_Dues_Settlement_Discount_Amount</t>
+  </si>
+  <si>
+    <t>Dues_Settlement_Discount_Head_Drp</t>
+  </si>
+  <si>
+    <t>Authorized_By_Drp</t>
+  </si>
+  <si>
+    <t>Discount_Remark_Text</t>
+  </si>
+  <si>
+    <t>Corporate Discount</t>
+  </si>
+  <si>
+    <t>vibhor</t>
+  </si>
+  <si>
+    <t>Anup Due Settlement Remarks</t>
+  </si>
+  <si>
+    <t>SPSL.885194</t>
+  </si>
+  <si>
+    <t>Speciality_Drp</t>
+  </si>
+  <si>
+    <t>Current_Date</t>
+  </si>
+  <si>
+    <t>Current_Status_Drp</t>
+  </si>
+  <si>
+    <t>Purpose_Drp</t>
+  </si>
+  <si>
+    <t>Empaty_Data</t>
+  </si>
+  <si>
+    <t>19-01-20226</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Doctor Late</t>
+  </si>
+  <si>
+    <t>No Data</t>
+  </si>
+  <si>
+    <t>Equipment_Department_Drp</t>
+  </si>
+  <si>
+    <t>Equipment_Date</t>
+  </si>
+  <si>
+    <t>ANAESTHESIA</t>
+  </si>
+  <si>
+    <t>Equipment_First_Name</t>
+  </si>
+  <si>
+    <t>Equipment_Middle_Name</t>
+  </si>
+  <si>
+    <t>Equipment_Last_Name</t>
+  </si>
+  <si>
+    <t>Equipment_Mobile_number</t>
+  </si>
+  <si>
+    <t>Equipment_Age</t>
+  </si>
+  <si>
+    <t>Equipment_gender_drp</t>
+  </si>
+  <si>
+    <t>Equipment_Source_drp</t>
+  </si>
+  <si>
+    <t>Equipment_SubSource_drp</t>
+  </si>
+  <si>
+    <t>Equipment_Patient_Type</t>
+  </si>
+  <si>
+    <t>Equipment_Remaks_Text</t>
+  </si>
+  <si>
+    <t>Sagar</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Equipment_Test_Type_Drp</t>
+  </si>
+  <si>
+    <t>x-ray</t>
+  </si>
+  <si>
+    <t>Equipment Remaks Anup</t>
+  </si>
+  <si>
+    <t>X-RAY MACHINE</t>
+  </si>
+  <si>
+    <t>OPd_Package_Enter_UHID</t>
+  </si>
+  <si>
+    <t>OPD_Package_Test_Find</t>
+  </si>
+  <si>
+    <t>OPD_Package_Doctor_Equiment_Drp</t>
+  </si>
+  <si>
+    <t>Enter_OPD_Package_Date</t>
+  </si>
+  <si>
+    <t>OPD_Package_Schedule_Slot_drp</t>
+  </si>
+  <si>
+    <t>,kjmhgfb</t>
+  </si>
+  <si>
+    <t>CT SCAN</t>
+  </si>
+  <si>
+    <t>17:00 TO 17:05 Not Required</t>
+  </si>
+  <si>
+    <t>SPSL.885524</t>
+  </si>
+  <si>
+    <t>Enter_Scroll_No</t>
+  </si>
+  <si>
+    <t>Enter_Uhid_Excel_Sheet</t>
+  </si>
+  <si>
+    <t>Document_type_drp</t>
+  </si>
+  <si>
+    <t>Uplpad_Document_Name</t>
+  </si>
+  <si>
+    <t>Upload_Document_Type_drp</t>
+  </si>
+  <si>
+    <t>Pre Auth Insurance</t>
+  </si>
+  <si>
+    <t>D:\\Anup j\\Testing_Automation_Driver\\download.pdf</t>
+  </si>
+  <si>
+    <t>File_Upload_Location</t>
+  </si>
+  <si>
+    <t>Document_type_Upload_Video</t>
+  </si>
+  <si>
+    <t>Insurance Card</t>
+  </si>
+  <si>
+    <t>Upload_Video_Location</t>
+  </si>
+  <si>
+    <t>D:\\Anup j\\Testing_Automation_Driver\\Trio_Tree.mp4</t>
+  </si>
+  <si>
+    <t>Dicom_Document_Name</t>
+  </si>
+  <si>
+    <t>Dicom_Doucument_Type_Drp</t>
+  </si>
+  <si>
+    <t>Dicon_Document_Location</t>
+  </si>
+  <si>
+    <t>SurgeryEstimation</t>
+  </si>
+  <si>
+    <t>Anup_1</t>
+  </si>
+  <si>
+    <t>Dicon Document Anup 3</t>
+  </si>
+  <si>
+    <t>D:\\Anup j\\Testing_Automation_Driver\\Dues_bill.dcm</t>
+  </si>
+  <si>
+    <t>SPSL.885445</t>
+  </si>
+  <si>
+    <t>Bills_Number_Excel_sheet</t>
+  </si>
+  <si>
+    <t>Billed_Cash</t>
+  </si>
+  <si>
+    <t>Company_Type_drp</t>
+  </si>
+  <si>
+    <t>Company_drp</t>
+  </si>
+  <si>
+    <t>Rate_contract_Drp</t>
+  </si>
+  <si>
+    <t>Corporate_company_Drp</t>
+  </si>
+  <si>
+    <t>Authorised_By_Drp</t>
+  </si>
+  <si>
+    <t>Billed_Reason</t>
+  </si>
+  <si>
+    <t>Remaks_Modify_Bill</t>
+  </si>
+  <si>
+    <t>OPCS251492</t>
+  </si>
+  <si>
+    <t>Anup Modify</t>
+  </si>
+  <si>
+    <t>Billed_Credit_Company</t>
+  </si>
+  <si>
+    <t>Enter_UHID_Excel_Sheet_Credit</t>
+  </si>
+  <si>
+    <t>Enter_UHID_Excel_Sheet_Cash</t>
+  </si>
+  <si>
+    <t>SPSL.885498</t>
+  </si>
+  <si>
+    <t>SPSL.885502</t>
+  </si>
+  <si>
+    <t>Enter_Date</t>
+  </si>
+  <si>
+    <t>Consultation_Speciality_Box1_Drp</t>
+  </si>
+  <si>
+    <t>Consultation_Doctor_Box1_Drp</t>
+  </si>
+  <si>
+    <t>Report_View_Box1_UHID</t>
+  </si>
+  <si>
+    <t>SPSL.885551</t>
   </si>
 </sst>
 </file>
@@ -2924,2716 +3194,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46148C05-C04B-4E7E-94E2-DC780A851127}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D1" t="s">
-        <v>604</v>
-      </c>
-      <c r="E1" t="s">
-        <v>580</v>
-      </c>
-      <c r="F1" t="s">
-        <v>581</v>
-      </c>
-      <c r="G1" t="s">
-        <v>582</v>
-      </c>
-      <c r="H1" t="s">
-        <v>583</v>
-      </c>
-      <c r="I1" t="s">
-        <v>584</v>
-      </c>
-      <c r="J1" t="s">
-        <v>585</v>
-      </c>
-      <c r="K1" t="s">
-        <v>586</v>
-      </c>
-      <c r="L1" t="s">
-        <v>587</v>
-      </c>
-      <c r="M1" t="s">
-        <v>588</v>
-      </c>
-      <c r="N1" t="s">
-        <v>589</v>
-      </c>
-      <c r="O1" t="s">
-        <v>590</v>
-      </c>
-      <c r="P1" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>592</v>
-      </c>
-      <c r="R1" t="s">
-        <v>593</v>
-      </c>
-      <c r="S1" t="s">
-        <v>594</v>
-      </c>
-      <c r="T1" t="s">
-        <v>595</v>
-      </c>
-      <c r="U1" t="s">
-        <v>596</v>
-      </c>
-      <c r="V1" t="s">
-        <v>597</v>
-      </c>
-      <c r="W1" t="s">
-        <v>598</v>
-      </c>
-      <c r="X1" t="s">
-        <v>599</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>600</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>601</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>605</v>
-      </c>
-      <c r="F2" s="1">
-        <v>46039</v>
-      </c>
-      <c r="G2" s="1">
-        <v>46046</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="J2" t="s">
-        <v>560</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="M2" t="s">
-        <v>560</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="P2" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q2" s="6">
-        <v>0.46527777777777773</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="S2" t="s">
-        <v>560</v>
-      </c>
-      <c r="T2" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="V2" t="s">
-        <v>560</v>
-      </c>
-      <c r="W2" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="X2" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>560</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="AA2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9148F193-E5B1-44DD-AACF-3C8D6C43B547}">
-  <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D1" t="s">
-        <v>607</v>
-      </c>
-      <c r="E1" t="s">
-        <v>608</v>
-      </c>
-      <c r="F1" t="s">
-        <v>609</v>
-      </c>
-      <c r="G1" t="s">
-        <v>610</v>
-      </c>
-      <c r="H1" t="s">
-        <v>611</v>
-      </c>
-      <c r="I1" t="s">
-        <v>612</v>
-      </c>
-      <c r="J1" t="s">
-        <v>613</v>
-      </c>
-      <c r="K1" t="s">
-        <v>614</v>
-      </c>
-      <c r="L1" t="s">
-        <v>615</v>
-      </c>
-      <c r="M1" t="s">
-        <v>616</v>
-      </c>
-      <c r="N1" t="s">
-        <v>617</v>
-      </c>
-      <c r="O1" t="s">
-        <v>618</v>
-      </c>
-      <c r="P1" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>620</v>
-      </c>
-      <c r="R1" t="s">
-        <v>621</v>
-      </c>
-      <c r="S1" t="s">
-        <v>622</v>
-      </c>
-      <c r="T1" t="s">
-        <v>623</v>
-      </c>
-      <c r="U1" t="s">
-        <v>624</v>
-      </c>
-      <c r="V1" t="s">
-        <v>625</v>
-      </c>
-      <c r="W1" t="s">
-        <v>626</v>
-      </c>
-      <c r="X1" t="s">
-        <v>627</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>628</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D2" s="1">
-        <v>46040</v>
-      </c>
-      <c r="E2" s="1">
-        <v>46047</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="H2" t="s">
-        <v>631</v>
-      </c>
-      <c r="I2" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="J2" s="6">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>631</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="N2" t="s">
-        <v>631</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>631</v>
-      </c>
-      <c r="R2" s="6">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="S2" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>631</v>
-      </c>
-      <c r="U2" s="6">
-        <v>0.375</v>
-      </c>
-      <c r="V2" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="W2" t="s">
-        <v>631</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B5F3C8-A44F-4566-9A7F-EF954EF0F8B8}">
-  <dimension ref="A1:M2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H1" t="s">
-        <v>373</v>
-      </c>
-      <c r="I1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="M1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F2" t="s">
-        <v>374</v>
-      </c>
-      <c r="G2" s="2">
-        <v>46338</v>
-      </c>
-      <c r="H2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="L2" t="s">
-        <v>382</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E1698-BA95-4A88-8625-5C71995069EA}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F1" t="s">
-        <v>423</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I1" t="s">
-        <v>425</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E2" s="2">
-        <v>46029</v>
-      </c>
-      <c r="F2" s="2">
-        <v>46032</v>
-      </c>
-      <c r="G2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" t="s">
-        <v>430</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B00FB-DF54-4876-9BC7-4310AF721AAF}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="2">
-        <v>45987</v>
-      </c>
-      <c r="D2" s="2">
-        <v>46029</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6283E-D0ED-417C-87D9-90DFF5F04C39}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E1" t="s">
-        <v>423</v>
-      </c>
-      <c r="F1" t="s">
-        <v>434</v>
-      </c>
-      <c r="G1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44319</v>
-      </c>
-      <c r="E2" s="1">
-        <v>46382</v>
-      </c>
-      <c r="F2" t="s">
-        <v>438</v>
-      </c>
-      <c r="G2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{2A39A0DC-22E2-43D7-BF1A-CE1FB514C70C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570562F2-A3AF-4158-9099-C7CFF49FA1AC}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D1" t="s">
-        <v>442</v>
-      </c>
-      <c r="E1" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G1" t="s">
-        <v>445</v>
-      </c>
-      <c r="H1" t="s">
-        <v>446</v>
-      </c>
-      <c r="I1" t="s">
-        <v>447</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D2" s="1">
-        <v>46029</v>
-      </c>
-      <c r="E2" s="1">
-        <v>46029</v>
-      </c>
-      <c r="F2" t="s">
-        <v>448</v>
-      </c>
-      <c r="G2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H2" t="s">
-        <v>448</v>
-      </c>
-      <c r="I2" t="s">
-        <v>449</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77349D39-81E3-4853-B70F-176D2F56631C}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45553779-9EBF-482E-B742-5CD5AF1A58A8}">
-  <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection sqref="A1:Z2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E1" t="s">
-        <v>452</v>
-      </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="H1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I1" t="s">
-        <v>457</v>
-      </c>
-      <c r="J1" t="s">
-        <v>458</v>
-      </c>
-      <c r="K1" t="s">
-        <v>459</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="N1" t="s">
-        <v>460</v>
-      </c>
-      <c r="O1" t="s">
-        <v>461</v>
-      </c>
-      <c r="P1" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>464</v>
-      </c>
-      <c r="R1" t="s">
-        <v>465</v>
-      </c>
-      <c r="S1" t="s">
-        <v>466</v>
-      </c>
-      <c r="T1" t="s">
-        <v>467</v>
-      </c>
-      <c r="U1" t="s">
-        <v>468</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="W1" t="s">
-        <v>470</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>472</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E2" t="s">
-        <v>454</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1">
-        <v>38725</v>
-      </c>
-      <c r="K2">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="N2" t="s">
-        <v>462</v>
-      </c>
-      <c r="O2">
-        <v>987</v>
-      </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>375</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" t="s">
-        <v>474</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" s="1">
-        <v>37418</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="W2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>475</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDDB6A7-3A1E-4534-A8F8-E72B7F36388F}">
-  <dimension ref="A1:AC2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35" customWidth="1"/>
-    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G1" t="s">
-        <v>484</v>
-      </c>
-      <c r="H1" t="s">
-        <v>486</v>
-      </c>
-      <c r="I1" t="s">
-        <v>488</v>
-      </c>
-      <c r="J1" t="s">
-        <v>489</v>
-      </c>
-      <c r="K1" t="s">
-        <v>491</v>
-      </c>
-      <c r="L1" t="s">
-        <v>490</v>
-      </c>
-      <c r="M1" t="s">
-        <v>492</v>
-      </c>
-      <c r="N1" t="s">
-        <v>493</v>
-      </c>
-      <c r="O1" t="s">
-        <v>494</v>
-      </c>
-      <c r="P1" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>497</v>
-      </c>
-      <c r="R1" t="s">
-        <v>242</v>
-      </c>
-      <c r="S1" t="s">
-        <v>498</v>
-      </c>
-      <c r="T1" t="s">
-        <v>499</v>
-      </c>
-      <c r="U1" t="s">
-        <v>500</v>
-      </c>
-      <c r="V1" t="s">
-        <v>501</v>
-      </c>
-      <c r="W1" t="s">
-        <v>502</v>
-      </c>
-      <c r="X1" t="s">
-        <v>503</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>507</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>508</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="1">
-        <v>46034</v>
-      </c>
-      <c r="E2" s="1">
-        <v>46034</v>
-      </c>
-      <c r="F2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G2" t="s">
-        <v>439</v>
-      </c>
-      <c r="H2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I2" t="s">
-        <v>487</v>
-      </c>
-      <c r="J2" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" t="s">
-        <v>485</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>244</v>
-      </c>
-      <c r="O2" t="s">
-        <v>252</v>
-      </c>
-      <c r="P2" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>46034</v>
-      </c>
-      <c r="R2" t="s">
-        <v>246</v>
-      </c>
-      <c r="S2" s="1">
-        <v>46065</v>
-      </c>
-      <c r="T2" t="s">
-        <v>275</v>
-      </c>
-      <c r="U2">
-        <v>9876543210</v>
-      </c>
-      <c r="V2" t="s">
-        <v>253</v>
-      </c>
-      <c r="W2" s="1">
-        <v>46024</v>
-      </c>
-      <c r="X2">
-        <v>123456</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z2">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>510</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>511</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{82C62593-23AC-4DF2-8E1D-9D6ECF2E2848}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B46374-9208-47E4-93A3-0C8576411B23}">
-  <dimension ref="A1:AB2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" t="s">
-        <v>168</v>
-      </c>
-      <c r="G1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J1" t="s">
-        <v>174</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>162</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" t="s">
-        <v>180</v>
-      </c>
-      <c r="W1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="2">
-        <v>46344</v>
-      </c>
-      <c r="E2" s="2">
-        <v>46016</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45610</v>
-      </c>
-      <c r="I2" s="2">
-        <v>46140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>40499</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>43058</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s">
-        <v>181</v>
-      </c>
-      <c r="V2" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" t="s">
-        <v>85</v>
-      </c>
-      <c r="X2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9BA597-AED7-4890-A19E-2192DCB1C412}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D1" t="s">
-        <v>514</v>
-      </c>
-      <c r="E1" t="s">
-        <v>515</v>
-      </c>
-      <c r="F1" t="s">
-        <v>422</v>
-      </c>
-      <c r="G1" t="s">
-        <v>423</v>
-      </c>
-      <c r="H1" t="s">
-        <v>517</v>
-      </c>
-      <c r="I1" t="s">
-        <v>518</v>
-      </c>
-      <c r="J1" t="s">
-        <v>519</v>
-      </c>
-      <c r="K1" t="s">
-        <v>520</v>
-      </c>
-      <c r="L1" t="s">
-        <v>521</v>
-      </c>
-      <c r="M1" t="s">
-        <v>527</v>
-      </c>
-      <c r="N1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45963</v>
-      </c>
-      <c r="G2" s="1">
-        <v>46035</v>
-      </c>
-      <c r="H2" t="s">
-        <v>522</v>
-      </c>
-      <c r="I2" t="s">
-        <v>523</v>
-      </c>
-      <c r="J2" t="s">
-        <v>524</v>
-      </c>
-      <c r="K2" t="s">
-        <v>525</v>
-      </c>
-      <c r="L2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M2" t="s">
-        <v>523</v>
-      </c>
-      <c r="N2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CBBACD-D37E-4F62-B405-4E2D5089BB62}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E1" t="s">
-        <v>532</v>
-      </c>
-      <c r="F1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G1" t="s">
-        <v>534</v>
-      </c>
-      <c r="H1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I1" t="s">
-        <v>536</v>
-      </c>
-      <c r="J1" t="s">
-        <v>537</v>
-      </c>
-      <c r="K1" t="s">
-        <v>497</v>
-      </c>
-      <c r="L1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M1" t="s">
-        <v>499</v>
-      </c>
-      <c r="N1" t="s">
-        <v>538</v>
-      </c>
-      <c r="O1" t="s">
-        <v>548</v>
-      </c>
-      <c r="P1" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>540</v>
-      </c>
-      <c r="R1" t="s">
-        <v>541</v>
-      </c>
-      <c r="S1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>567</v>
-      </c>
-      <c r="D2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>546</v>
-      </c>
-      <c r="J2">
-        <v>123456</v>
-      </c>
-      <c r="K2" s="1">
-        <v>46036</v>
-      </c>
-      <c r="L2" t="s">
-        <v>246</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>547</v>
-      </c>
-      <c r="O2" t="s">
-        <v>549</v>
-      </c>
-      <c r="P2" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q2">
-        <v>65432</v>
-      </c>
-      <c r="R2" t="s">
-        <v>550</v>
-      </c>
-      <c r="S2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CB538D-8345-4E93-9966-9760DD804035}">
-  <dimension ref="A1:V2"/>
-  <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F1" t="s">
-        <v>554</v>
-      </c>
-      <c r="G1" t="s">
-        <v>537</v>
-      </c>
-      <c r="H1" t="s">
-        <v>497</v>
-      </c>
-      <c r="I1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J1" t="s">
-        <v>499</v>
-      </c>
-      <c r="K1" t="s">
-        <v>555</v>
-      </c>
-      <c r="L1" t="s">
-        <v>556</v>
-      </c>
-      <c r="M1" t="s">
-        <v>501</v>
-      </c>
-      <c r="N1" t="s">
-        <v>557</v>
-      </c>
-      <c r="O1" t="s">
-        <v>558</v>
-      </c>
-      <c r="P1" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>564</v>
-      </c>
-      <c r="R1" t="s">
-        <v>565</v>
-      </c>
-      <c r="S1" t="s">
-        <v>571</v>
-      </c>
-      <c r="T1" t="s">
-        <v>570</v>
-      </c>
-      <c r="U1" t="s">
-        <v>568</v>
-      </c>
-      <c r="V1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>560</v>
-      </c>
-      <c r="G2">
-        <v>1122</v>
-      </c>
-      <c r="H2" s="1">
-        <v>46036</v>
-      </c>
-      <c r="I2" t="s">
-        <v>254</v>
-      </c>
-      <c r="J2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K2" t="s">
-        <v>561</v>
-      </c>
-      <c r="L2">
-        <v>9988</v>
-      </c>
-      <c r="M2" t="s">
-        <v>562</v>
-      </c>
-      <c r="N2" t="s">
-        <v>563</v>
-      </c>
-      <c r="O2" t="s">
-        <v>275</v>
-      </c>
-      <c r="P2">
-        <v>1000</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>567</v>
-      </c>
-      <c r="R2" t="s">
-        <v>566</v>
-      </c>
-      <c r="S2" s="1">
-        <v>46023</v>
-      </c>
-      <c r="T2" s="1">
-        <v>46037</v>
-      </c>
-      <c r="U2" t="s">
-        <v>572</v>
-      </c>
-      <c r="V2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0392C8-D1C2-4550-B104-1A1623DD4842}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>576</v>
-      </c>
-      <c r="D1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E1" t="s">
-        <v>578</v>
-      </c>
-      <c r="F1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="1">
-        <v>46023</v>
-      </c>
-      <c r="D2" s="1">
-        <v>46037</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45957</v>
-      </c>
-      <c r="F2" s="1">
-        <v>46038</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373D655A-26ED-4DBB-8B5A-A69FDF4C415A}">
-  <dimension ref="A1:AY2"/>
-  <sheetViews>
-    <sheetView topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="AT6" sqref="AT6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="24" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" t="s">
-        <v>211</v>
-      </c>
-      <c r="F1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" t="s">
-        <v>116</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="K1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O1" t="s">
-        <v>122</v>
-      </c>
-      <c r="P1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="X1" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AR1" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS1" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AT1" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AX1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AY1" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O2" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="X2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>45994</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>230</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AP2" r:id="rId1" xr:uid="{DF9F4865-B3B2-490C-B943-18D6E7946DF6}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EE3DB-E8F8-4133-AE7D-A19EC672C8B9}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" t="s">
-        <v>204</v>
-      </c>
-      <c r="N1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" t="s">
-        <v>188</v>
-      </c>
-      <c r="L2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M2" s="1">
-        <v>45994</v>
-      </c>
-      <c r="N2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3078705D-F9CA-4876-A484-E54C9F60570C}">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>158</v>
-      </c>
-      <c r="T1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="1">
-        <v>45993</v>
-      </c>
-      <c r="F2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2">
-        <v>8527417</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L2" t="s">
-        <v>152</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" t="s">
-        <v>157</v>
-      </c>
-      <c r="S2" t="s">
-        <v>159</v>
-      </c>
-      <c r="T2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544200DA-9307-4890-A10B-977B5EEE653D}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BDD2E4-D8BA-4F2E-B68E-E28738CABBDF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -5724,7 +3284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA277297-A5C9-4C74-A1D8-77D80FFE5D36}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
@@ -6276,7 +3836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B43B7C9-C12A-4E70-BAF8-C89FE3910C09}">
   <dimension ref="A1:BX2"/>
   <sheetViews>
@@ -6827,4 +4387,3450 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46148C05-C04B-4E7E-94E2-DC780A851127}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I1" t="s">
+        <v>584</v>
+      </c>
+      <c r="J1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K1" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1" t="s">
+        <v>587</v>
+      </c>
+      <c r="M1" t="s">
+        <v>588</v>
+      </c>
+      <c r="N1" t="s">
+        <v>589</v>
+      </c>
+      <c r="O1" t="s">
+        <v>590</v>
+      </c>
+      <c r="P1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R1" t="s">
+        <v>593</v>
+      </c>
+      <c r="S1" t="s">
+        <v>594</v>
+      </c>
+      <c r="T1" t="s">
+        <v>595</v>
+      </c>
+      <c r="U1" t="s">
+        <v>596</v>
+      </c>
+      <c r="V1" t="s">
+        <v>597</v>
+      </c>
+      <c r="W1" t="s">
+        <v>598</v>
+      </c>
+      <c r="X1" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>600</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46039</v>
+      </c>
+      <c r="G2" s="1">
+        <v>46046</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="M2" t="s">
+        <v>560</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="S2" t="s">
+        <v>560</v>
+      </c>
+      <c r="T2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>560</v>
+      </c>
+      <c r="W2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="X2" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>560</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9148F193-E5B1-44DD-AACF-3C8D6C43B547}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E1" t="s">
+        <v>608</v>
+      </c>
+      <c r="F1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H1" t="s">
+        <v>611</v>
+      </c>
+      <c r="I1" t="s">
+        <v>612</v>
+      </c>
+      <c r="J1" t="s">
+        <v>613</v>
+      </c>
+      <c r="K1" t="s">
+        <v>614</v>
+      </c>
+      <c r="L1" t="s">
+        <v>615</v>
+      </c>
+      <c r="M1" t="s">
+        <v>616</v>
+      </c>
+      <c r="N1" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" t="s">
+        <v>618</v>
+      </c>
+      <c r="P1" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>620</v>
+      </c>
+      <c r="R1" t="s">
+        <v>621</v>
+      </c>
+      <c r="S1" t="s">
+        <v>622</v>
+      </c>
+      <c r="T1" t="s">
+        <v>623</v>
+      </c>
+      <c r="U1" t="s">
+        <v>624</v>
+      </c>
+      <c r="V1" t="s">
+        <v>625</v>
+      </c>
+      <c r="W1" t="s">
+        <v>626</v>
+      </c>
+      <c r="X1" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>628</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46047</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="H2" t="s">
+        <v>631</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J2" s="6">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>631</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N2" t="s">
+        <v>631</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>631</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="S2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>631</v>
+      </c>
+      <c r="U2" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W2" t="s">
+        <v>631</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B5F3C8-A44F-4566-9A7F-EF954EF0F8B8}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J1" t="s">
+        <v>377</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="M1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="2">
+        <v>46338</v>
+      </c>
+      <c r="H2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="L2" t="s">
+        <v>382</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1E1698-BA95-4A88-8625-5C71995069EA}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E2" s="2">
+        <v>46029</v>
+      </c>
+      <c r="F2" s="2">
+        <v>46032</v>
+      </c>
+      <c r="G2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H2" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" t="s">
+        <v>430</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B00FB-DF54-4876-9BC7-4310AF721AAF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45987</v>
+      </c>
+      <c r="D2" s="2">
+        <v>46029</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA6283E-D0ED-417C-87D9-90DFF5F04C39}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44319</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46382</v>
+      </c>
+      <c r="F2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{2A39A0DC-22E2-43D7-BF1A-CE1FB514C70C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570562F2-A3AF-4158-9099-C7CFF49FA1AC}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" t="s">
+        <v>446</v>
+      </c>
+      <c r="I1" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46029</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46029</v>
+      </c>
+      <c r="F2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G2" t="s">
+        <v>449</v>
+      </c>
+      <c r="H2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B46374-9208-47E4-93A3-0C8576411B23}">
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>162</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="2">
+        <v>46344</v>
+      </c>
+      <c r="E2" s="2">
+        <v>46016</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45610</v>
+      </c>
+      <c r="I2" s="2">
+        <v>46140</v>
+      </c>
+      <c r="J2" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>40499</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>43058</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2" t="s">
+        <v>86</v>
+      </c>
+      <c r="W2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77349D39-81E3-4853-B70F-176D2F56631C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45553779-9EBF-482E-B742-5CD5AF1A58A8}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection sqref="A1:Z2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H1" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" t="s">
+        <v>458</v>
+      </c>
+      <c r="K1" t="s">
+        <v>459</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="N1" t="s">
+        <v>460</v>
+      </c>
+      <c r="O1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>464</v>
+      </c>
+      <c r="R1" t="s">
+        <v>465</v>
+      </c>
+      <c r="S1" t="s">
+        <v>466</v>
+      </c>
+      <c r="T1" t="s">
+        <v>467</v>
+      </c>
+      <c r="U1" t="s">
+        <v>468</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="W1" t="s">
+        <v>470</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>472</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1">
+        <v>38725</v>
+      </c>
+      <c r="K2">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N2" t="s">
+        <v>462</v>
+      </c>
+      <c r="O2">
+        <v>987</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>375</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>474</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1">
+        <v>37418</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>475</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDDB6A7-3A1E-4534-A8F8-E72B7F36388F}">
+  <dimension ref="A1:AC2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1" t="s">
+        <v>486</v>
+      </c>
+      <c r="I1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J1" t="s">
+        <v>489</v>
+      </c>
+      <c r="K1" t="s">
+        <v>491</v>
+      </c>
+      <c r="L1" t="s">
+        <v>490</v>
+      </c>
+      <c r="M1" t="s">
+        <v>492</v>
+      </c>
+      <c r="N1" t="s">
+        <v>493</v>
+      </c>
+      <c r="O1" t="s">
+        <v>494</v>
+      </c>
+      <c r="P1" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R1" t="s">
+        <v>242</v>
+      </c>
+      <c r="S1" t="s">
+        <v>498</v>
+      </c>
+      <c r="T1" t="s">
+        <v>499</v>
+      </c>
+      <c r="U1" t="s">
+        <v>500</v>
+      </c>
+      <c r="V1" t="s">
+        <v>501</v>
+      </c>
+      <c r="W1" t="s">
+        <v>502</v>
+      </c>
+      <c r="X1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>508</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46034</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46034</v>
+      </c>
+      <c r="F2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" t="s">
+        <v>485</v>
+      </c>
+      <c r="I2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K2" t="s">
+        <v>485</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>244</v>
+      </c>
+      <c r="O2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P2" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>46034</v>
+      </c>
+      <c r="R2" t="s">
+        <v>246</v>
+      </c>
+      <c r="S2" s="1">
+        <v>46065</v>
+      </c>
+      <c r="T2" t="s">
+        <v>275</v>
+      </c>
+      <c r="U2">
+        <v>9876543210</v>
+      </c>
+      <c r="V2" t="s">
+        <v>253</v>
+      </c>
+      <c r="W2" s="1">
+        <v>46024</v>
+      </c>
+      <c r="X2">
+        <v>123456</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z2">
+        <v>100</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>510</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{82C62593-23AC-4DF2-8E1D-9D6ECF2E2848}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B47B9C8-C368-47E3-A2D0-AEA7CB8F5EEB}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1" t="s">
+        <v>683</v>
+      </c>
+      <c r="H1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G2" t="s">
+        <v>686</v>
+      </c>
+      <c r="H2" t="s">
+        <v>687</v>
+      </c>
+      <c r="I2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9BA597-AED7-4890-A19E-2192DCB1C412}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" t="s">
+        <v>517</v>
+      </c>
+      <c r="I1" t="s">
+        <v>518</v>
+      </c>
+      <c r="J1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K1" t="s">
+        <v>520</v>
+      </c>
+      <c r="L1" t="s">
+        <v>521</v>
+      </c>
+      <c r="M1" t="s">
+        <v>527</v>
+      </c>
+      <c r="N1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>45963</v>
+      </c>
+      <c r="G2" s="1">
+        <v>46035</v>
+      </c>
+      <c r="H2" t="s">
+        <v>522</v>
+      </c>
+      <c r="I2" t="s">
+        <v>523</v>
+      </c>
+      <c r="J2" t="s">
+        <v>524</v>
+      </c>
+      <c r="K2" t="s">
+        <v>525</v>
+      </c>
+      <c r="L2" t="s">
+        <v>526</v>
+      </c>
+      <c r="M2" t="s">
+        <v>523</v>
+      </c>
+      <c r="N2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26CBBACD-D37E-4F62-B405-4E2D5089BB62}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I1" t="s">
+        <v>536</v>
+      </c>
+      <c r="J1" t="s">
+        <v>537</v>
+      </c>
+      <c r="K1" t="s">
+        <v>497</v>
+      </c>
+      <c r="L1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" t="s">
+        <v>499</v>
+      </c>
+      <c r="N1" t="s">
+        <v>538</v>
+      </c>
+      <c r="O1" t="s">
+        <v>548</v>
+      </c>
+      <c r="P1" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R1" t="s">
+        <v>541</v>
+      </c>
+      <c r="S1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G2" t="s">
+        <v>545</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>546</v>
+      </c>
+      <c r="J2">
+        <v>123456</v>
+      </c>
+      <c r="K2" s="1">
+        <v>46036</v>
+      </c>
+      <c r="L2" t="s">
+        <v>246</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>547</v>
+      </c>
+      <c r="O2" t="s">
+        <v>549</v>
+      </c>
+      <c r="P2" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q2">
+        <v>65432</v>
+      </c>
+      <c r="R2" t="s">
+        <v>550</v>
+      </c>
+      <c r="S2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15CB538D-8345-4E93-9966-9760DD804035}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F1" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1" t="s">
+        <v>537</v>
+      </c>
+      <c r="H1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K1" t="s">
+        <v>555</v>
+      </c>
+      <c r="L1" t="s">
+        <v>556</v>
+      </c>
+      <c r="M1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N1" t="s">
+        <v>557</v>
+      </c>
+      <c r="O1" t="s">
+        <v>558</v>
+      </c>
+      <c r="P1" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>564</v>
+      </c>
+      <c r="R1" t="s">
+        <v>565</v>
+      </c>
+      <c r="S1" t="s">
+        <v>571</v>
+      </c>
+      <c r="T1" t="s">
+        <v>570</v>
+      </c>
+      <c r="U1" t="s">
+        <v>568</v>
+      </c>
+      <c r="V1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2">
+        <v>1122</v>
+      </c>
+      <c r="H2" s="1">
+        <v>46036</v>
+      </c>
+      <c r="I2" t="s">
+        <v>254</v>
+      </c>
+      <c r="J2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K2" t="s">
+        <v>561</v>
+      </c>
+      <c r="L2">
+        <v>9988</v>
+      </c>
+      <c r="M2" t="s">
+        <v>562</v>
+      </c>
+      <c r="N2" t="s">
+        <v>563</v>
+      </c>
+      <c r="O2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P2">
+        <v>1000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>567</v>
+      </c>
+      <c r="R2" t="s">
+        <v>566</v>
+      </c>
+      <c r="S2" s="1">
+        <v>46023</v>
+      </c>
+      <c r="T2" s="1">
+        <v>46037</v>
+      </c>
+      <c r="U2" t="s">
+        <v>572</v>
+      </c>
+      <c r="V2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D0392C8-D1C2-4550-B104-1A1623DD4842}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46023</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46037</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45957</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0098A50C-E3FF-4150-B80F-81F50186BBC5}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983F4B50-270E-47A3-948C-5FE6B48B407B}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E1" t="s">
+        <v>730</v>
+      </c>
+      <c r="F1" t="s">
+        <v>731</v>
+      </c>
+      <c r="G1" t="s">
+        <v>734</v>
+      </c>
+      <c r="H1" t="s">
+        <v>735</v>
+      </c>
+      <c r="I1" t="s">
+        <v>737</v>
+      </c>
+      <c r="J1" t="s">
+        <v>739</v>
+      </c>
+      <c r="K1" t="s">
+        <v>740</v>
+      </c>
+      <c r="L1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" t="s">
+        <v>743</v>
+      </c>
+      <c r="F2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G2" t="s">
+        <v>733</v>
+      </c>
+      <c r="H2" t="s">
+        <v>736</v>
+      </c>
+      <c r="I2" t="s">
+        <v>738</v>
+      </c>
+      <c r="J2" t="s">
+        <v>744</v>
+      </c>
+      <c r="K2" t="s">
+        <v>742</v>
+      </c>
+      <c r="L2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373D655A-26ED-4DBB-8B5A-A69FDF4C415A}">
+  <dimension ref="A1:AY2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="24" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="X1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K2" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>45994</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AP2" r:id="rId1" xr:uid="{DF9F4865-B3B2-490C-B943-18D6E7946DF6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31F657A-201F-40C3-B98C-A9F9B03DF3B8}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E1" t="s">
+        <v>747</v>
+      </c>
+      <c r="F1" t="s">
+        <v>758</v>
+      </c>
+      <c r="G1" t="s">
+        <v>748</v>
+      </c>
+      <c r="H1" t="s">
+        <v>749</v>
+      </c>
+      <c r="I1" t="s">
+        <v>750</v>
+      </c>
+      <c r="J1" t="s">
+        <v>751</v>
+      </c>
+      <c r="K1" t="s">
+        <v>752</v>
+      </c>
+      <c r="L1" t="s">
+        <v>753</v>
+      </c>
+      <c r="M1" t="s">
+        <v>754</v>
+      </c>
+      <c r="N1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F2">
+        <v>2000</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" t="s">
+        <v>687</v>
+      </c>
+      <c r="M2" t="s">
+        <v>572</v>
+      </c>
+      <c r="N2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E1A54B-A436-4001-BE88-01DE0EAB86D9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46042</v>
+      </c>
+      <c r="D2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AEAECA-0D15-4887-A066-CB8B587FF9AB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8EE3DB-E8F8-4133-AE7D-A19EC672C8B9}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M1" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45994</v>
+      </c>
+      <c r="N2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3078705D-F9CA-4876-A484-E54C9F60570C}">
+  <dimension ref="A1:T2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>147</v>
+      </c>
+      <c r="R1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45993</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2">
+        <v>8527417</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF0990E-741E-4C1B-810F-3E6D5F2A4DF6}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>699</v>
+      </c>
+      <c r="D1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F1" t="s">
+        <v>702</v>
+      </c>
+      <c r="G1" t="s">
+        <v>703</v>
+      </c>
+      <c r="H1" t="s">
+        <v>704</v>
+      </c>
+      <c r="I1" t="s">
+        <v>705</v>
+      </c>
+      <c r="J1" t="s">
+        <v>706</v>
+      </c>
+      <c r="K1" t="s">
+        <v>707</v>
+      </c>
+      <c r="L1" t="s">
+        <v>714</v>
+      </c>
+      <c r="M1" t="s">
+        <v>708</v>
+      </c>
+      <c r="N1" t="s">
+        <v>709</v>
+      </c>
+      <c r="O1" t="s">
+        <v>710</v>
+      </c>
+      <c r="P1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46042</v>
+      </c>
+      <c r="F2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>713</v>
+      </c>
+      <c r="I2">
+        <v>9876543210</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>715</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" t="s">
+        <v>698</v>
+      </c>
+      <c r="P2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E25BFB-5A64-45CB-AFD0-C13AA2181D17}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1" t="s">
+        <v>719</v>
+      </c>
+      <c r="E1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D2" t="s">
+        <v>723</v>
+      </c>
+      <c r="E2" t="s">
+        <v>724</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46043</v>
+      </c>
+      <c r="G2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6A3060-5359-4350-B88C-F0AB150FE8EC}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G1" t="s">
+        <v>693</v>
+      </c>
+      <c r="H1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>695</v>
+      </c>
+      <c r="F2" t="s">
+        <v>696</v>
+      </c>
+      <c r="G2" t="s">
+        <v>697</v>
+      </c>
+      <c r="H2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544200DA-9307-4890-A10B-977B5EEE653D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5B9C85-D855-46BC-BD93-C7175F0E19F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D0B6DE-B5D8-4EDD-AF58-030F1CCE2EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="28" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="53" activeTab="56" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FO_Registration_Page" sheetId="15" r:id="rId1"/>
@@ -40,6 +40,31 @@
     <sheet name="FO_Modify_Bill" sheetId="46" r:id="rId30"/>
     <sheet name="FO_Patient_Queue" sheetId="47" r:id="rId31"/>
     <sheet name="FO_Consultation_Queue" sheetId="48" r:id="rId32"/>
+    <sheet name="Admit_Patient" sheetId="49" r:id="rId33"/>
+    <sheet name="Bed_Booking" sheetId="50" r:id="rId34"/>
+    <sheet name="BedBookingStatus" sheetId="51" r:id="rId35"/>
+    <sheet name="updateADD" sheetId="52" r:id="rId36"/>
+    <sheet name="SurgeryReq" sheetId="53" r:id="rId37"/>
+    <sheet name="MedicalEstimate" sheetId="54" r:id="rId38"/>
+    <sheet name="Surgical_Sheet" sheetId="55" r:id="rId39"/>
+    <sheet name="Package_Sheet" sheetId="56" r:id="rId40"/>
+    <sheet name="Bed_Allotment" sheetId="57" r:id="rId41"/>
+    <sheet name="Pre_Auth" sheetId="58" r:id="rId42"/>
+    <sheet name="Pre_Auth_Admit_Patient" sheetId="59" r:id="rId43"/>
+    <sheet name="ADT_Consent" sheetId="60" r:id="rId44"/>
+    <sheet name="Pre_Add_Det" sheetId="61" r:id="rId45"/>
+    <sheet name="Bed_Status" sheetId="62" r:id="rId46"/>
+    <sheet name="Release_Retained_Bed" sheetId="63" r:id="rId47"/>
+    <sheet name="Bed_Transfer" sheetId="64" r:id="rId48"/>
+    <sheet name="MECreditLimit" sheetId="65" r:id="rId49"/>
+    <sheet name="Int_Bed_Transfer" sheetId="66" r:id="rId50"/>
+    <sheet name="Deposit_Refund" sheetId="68" r:id="rId51"/>
+    <sheet name="Cheque_In_Hand" sheetId="69" r:id="rId52"/>
+    <sheet name="ReferralHospital" sheetId="70" r:id="rId53"/>
+    <sheet name="Referral_Doctor" sheetId="71" r:id="rId54"/>
+    <sheet name="Bed_Status_AdmitPatient" sheetId="72" r:id="rId55"/>
+    <sheet name="Bed_Status_BlockedBed" sheetId="73" r:id="rId56"/>
+    <sheet name="IP_Billing_Audit_Clearance" sheetId="74" r:id="rId57"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="917">
   <si>
     <t>SANITY HOSPITAL</t>
   </si>
@@ -2355,13 +2380,460 @@
   </si>
   <si>
     <t>SPSL.885551</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>FatherName</t>
+  </si>
+  <si>
+    <t>M_Status</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>ABCPin</t>
+  </si>
+  <si>
+    <t>Speciality</t>
+  </si>
+  <si>
+    <t>Referred</t>
+  </si>
+  <si>
+    <t>Stay</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>BedType</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Package_Speciality</t>
+  </si>
+  <si>
+    <t>KinName</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t>BillingCo</t>
+  </si>
+  <si>
+    <t>ClinicalCo</t>
+  </si>
+  <si>
+    <t>1st floor Nursing</t>
+  </si>
+  <si>
+    <t>Anup_Kumar</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>H-60</t>
+  </si>
+  <si>
+    <t>Ghaziabad</t>
+  </si>
+  <si>
+    <t>456894</t>
+  </si>
+  <si>
+    <t>Cardiac Surgery</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>OPD</t>
+  </si>
+  <si>
+    <t>COVID ICU</t>
+  </si>
+  <si>
+    <t>GYNAE WARD I (FIRST FLOOR)</t>
+  </si>
+  <si>
+    <t>Patient himself</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Bed</t>
+  </si>
+  <si>
+    <t>PSpeciality</t>
+  </si>
+  <si>
+    <t>ReferredBy</t>
+  </si>
+  <si>
+    <t>ReqBedType</t>
+  </si>
+  <si>
+    <t>RBTBPD</t>
+  </si>
+  <si>
+    <t>ReqBedType1</t>
+  </si>
+  <si>
+    <t>AlloBedType</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>AN_EMERGENCY</t>
+  </si>
+  <si>
+    <t>DischargeType</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>01-11-2025</t>
+  </si>
+  <si>
+    <t>EstimateType</t>
+  </si>
+  <si>
+    <t>WardDays</t>
+  </si>
+  <si>
+    <t>PrimaryAttending</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PrimaryConsultant</t>
+  </si>
+  <si>
+    <t>VisitDays</t>
+  </si>
+  <si>
+    <t>RateContract</t>
+  </si>
+  <si>
+    <t>DepositAmount</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>01-11-1990</t>
+  </si>
+  <si>
+    <t>Initial Pre-Admission Estimate</t>
+  </si>
+  <si>
+    <t>HIMANSHU GENERAL WARD</t>
+  </si>
+  <si>
+    <t>Abhi Krishnan P 9876543211</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>Having 10mm Stone in Kidney</t>
+  </si>
+  <si>
+    <t>SurgicalSpeciality</t>
+  </si>
+  <si>
+    <t>Surgery</t>
+  </si>
+  <si>
+    <t>OTDuration</t>
+  </si>
+  <si>
+    <t>SurgeonSpeciality</t>
+  </si>
+  <si>
+    <t>Surgeon</t>
+  </si>
+  <si>
+    <t>Anesthesia</t>
+  </si>
+  <si>
+    <t>CARDIOLOGY</t>
+  </si>
+  <si>
+    <t>Surgeryone</t>
+  </si>
+  <si>
+    <t>60 MIN</t>
+  </si>
+  <si>
+    <t>Dhyanchand</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>ItemQuantity</t>
+  </si>
+  <si>
+    <t>Surgery Package</t>
+  </si>
+  <si>
+    <t>Abdominal Angiography</t>
+  </si>
+  <si>
+    <t>IPNO</t>
+  </si>
+  <si>
+    <t>RequestedBedType</t>
+  </si>
+  <si>
+    <t>BillableBedType</t>
+  </si>
+  <si>
+    <t>AllotedBedType</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>DocumentName</t>
+  </si>
+  <si>
+    <t>DocumentType</t>
+  </si>
+  <si>
+    <t>Automation_Testing</t>
+  </si>
+  <si>
+    <t>UHID</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>SPSL.1</t>
+  </si>
+  <si>
+    <t>TESTING CONSENT</t>
+  </si>
+  <si>
+    <t>SPSL.871030</t>
+  </si>
+  <si>
+    <t>BedStatus</t>
+  </si>
+  <si>
+    <t>&lt; --ALL-- &gt;</t>
+  </si>
+  <si>
+    <t>TrioBed993</t>
+  </si>
+  <si>
+    <t>CreditLim</t>
+  </si>
+  <si>
+    <t>CompanyType</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>ClaimNumber</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>TPA/INSURANCE</t>
+  </si>
+  <si>
+    <t>bajaj ka general</t>
+  </si>
+  <si>
+    <t>A_T_5421</t>
+  </si>
+  <si>
+    <t>Ward1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st floor </t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>PaymentMode</t>
+  </si>
+  <si>
+    <t>UHIDOPIP</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>SPSL.878315</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>BranchName</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>SPSL.885150</t>
+  </si>
+  <si>
+    <t>AXIS BANK LTD</t>
+  </si>
+  <si>
+    <t>NoidaSec62</t>
+  </si>
+  <si>
+    <t>DoctorType</t>
+  </si>
+  <si>
+    <t>Noida Sec 62</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>StateRegn</t>
+  </si>
+  <si>
+    <t>Hospital</t>
+  </si>
+  <si>
+    <t>MedicalGen</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Textreason</t>
+  </si>
+  <si>
+    <t>BedStatusBlocked</t>
+  </si>
+  <si>
+    <t>Vacant</t>
+  </si>
+  <si>
+    <t>Under Maintenance</t>
+  </si>
+  <si>
+    <t>Blocked for maintenance</t>
+  </si>
+  <si>
+    <t>Dashborad_Facility_Drp</t>
+  </si>
+  <si>
+    <t>Ip_Billing_Station_Drp</t>
+  </si>
+  <si>
+    <t>Aduit_Clearance_Facility_Drp</t>
+  </si>
+  <si>
+    <t>Clearance_Status_All_Drp</t>
+  </si>
+  <si>
+    <t>Clearance_Status_New_Admission_Drp</t>
+  </si>
+  <si>
+    <t>Clearance_Status_Query_Audit_Drp</t>
+  </si>
+  <si>
+    <t>Clearance_Status_Resolved_Billing_Drp</t>
+  </si>
+  <si>
+    <t>Clearance_Status_Approved_Audit_Drp</t>
+  </si>
+  <si>
+    <t>IP BILLING</t>
+  </si>
+  <si>
+    <t>SPSL.88545</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>New Admission</t>
+  </si>
+  <si>
+    <t>Query (Audit)</t>
+  </si>
+  <si>
+    <t>Resolved (Billing)</t>
+  </si>
+  <si>
+    <t>Approved (Audit)</t>
+  </si>
+  <si>
+    <t>Asutosh</t>
+  </si>
+  <si>
+    <t>Asutosh_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2380,6 +2852,21 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2406,7 +2893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2414,6 +2901,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7187,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AEAECA-0D15-4887-A066-CB8B587FF9AB}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7232,6 +7725,643 @@
       </c>
       <c r="E2" t="s">
         <v>767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F9016A-938F-4400-83E8-235BA46C870F}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>33725</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>916</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>915</v>
+      </c>
+      <c r="V2" t="s">
+        <v>801</v>
+      </c>
+      <c r="W2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB2209C-978C-47CA-AF28-49DB7E2545A2}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51290977-4EB7-4A35-8E8F-F771508AC8C8}">
+  <dimension ref="D1:E2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3760E4-D59C-47CD-9BA3-D075BA4266D8}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>815</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220971AF-C298-4E71-AF2D-675BD6076F7E}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>813</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCB5071-5290-475D-855E-B44E86E5E5F7}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>822</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>829</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC429630-A89C-4C71-A503-35EF75AA2678}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -7351,6 +8481,690 @@
       </c>
       <c r="N2" t="s">
         <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570FE12D-3640-4098-819E-506D2CCB328A}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>818</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>819</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>823</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>843</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>827</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9801B2A-67C9-48CE-94E6-2E7623438037}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC32999-B0A5-43BE-B2A2-E67B52CC4EDA}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>852</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="D2" t="s">
+        <v>855</v>
+      </c>
+      <c r="E2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3612F601-9124-4734-A7F4-C4C417963922}">
+  <dimension ref="A1:W2"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:W2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>33725</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>796</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" t="s">
+        <v>801</v>
+      </c>
+      <c r="W2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3CD7E1-8D63-4A70-9D71-CE1FF59CADDB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B6842F-A27F-425B-9A21-744F155C1945}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C5DB6F-75E3-476E-A283-755AAF252158}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D738B43-5F47-4CFF-A129-9ABB09D0ADE8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60170B0D-FBD2-4422-B12B-2B8B6FD7BCBC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>800</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE205D21-04A8-4D48-892A-DA08C4F04F19}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H2" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -7520,6 +9334,565 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582B895E-AC00-42AB-B0DC-1500C6C2814F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>873</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>799</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2C9222-D85D-4DBB-B1F2-346FC6CD1ED6}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>876</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>858</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="G2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{718E0476-A74C-437E-81EE-371E831BF340}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>885</v>
+      </c>
+      <c r="F2" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB5E67A-939E-4344-8118-B2A53440045D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" t="s">
+        <v>888</v>
+      </c>
+      <c r="D2" t="s">
+        <v>794</v>
+      </c>
+      <c r="E2" t="s">
+        <v>812</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9671985-B31B-4DFF-AC3A-1945D6C4A930}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>893</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="E2" t="s">
+        <v>888</v>
+      </c>
+      <c r="F2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G2" t="s">
+        <v>812</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>560</v>
+      </c>
+      <c r="J2" t="s">
+        <v>560</v>
+      </c>
+      <c r="K2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77ABA8E8-2AE2-43F9-8592-DA38F25636A0}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="F2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G2" t="s">
+        <v>855</v>
+      </c>
+      <c r="H2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C320C4-AD5E-4F65-89F7-CBAD317C0027}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>897</v>
+      </c>
+      <c r="F2" t="s">
+        <v>898</v>
+      </c>
+      <c r="G2" t="s">
+        <v>855</v>
+      </c>
+      <c r="H2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D729585A-F387-460F-97C2-E80BD65AF1E5}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="36.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" t="s">
+        <v>903</v>
+      </c>
+      <c r="G1" t="s">
+        <v>904</v>
+      </c>
+      <c r="H1" t="s">
+        <v>905</v>
+      </c>
+      <c r="I1" t="s">
+        <v>906</v>
+      </c>
+      <c r="J1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E2">
+        <v>21706</v>
+      </c>
+      <c r="F2" t="s">
+        <v>910</v>
+      </c>
+      <c r="G2" t="s">
+        <v>911</v>
+      </c>
+      <c r="H2" t="s">
+        <v>912</v>
+      </c>
+      <c r="I2" t="s">
+        <v>913</v>
+      </c>
+      <c r="J2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF0990E-741E-4C1B-810F-3E6D5F2A4DF6}">
   <dimension ref="A1:P2"/>

--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D0B6DE-B5D8-4EDD-AF58-030F1CCE2EFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1612AF-D8BF-43EE-AC6C-919DD0AF2634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="53" activeTab="56" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="920">
   <si>
     <t>SANITY HOSPITAL</t>
   </si>
@@ -2827,6 +2827,15 @@
   </si>
   <si>
     <t>Asutosh_</t>
+  </si>
+  <si>
+    <t>Enter_Add_Remaks</t>
+  </si>
+  <si>
+    <t>AuditRemarkandQuery_Status_Drp</t>
+  </si>
+  <si>
+    <t>Anup Approved Audit</t>
   </si>
 </sst>
 </file>
@@ -9805,10 +9814,10 @@
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D729585A-F387-460F-97C2-E80BD65AF1E5}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9821,9 +9830,11 @@
     <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>900</v>
       </c>
@@ -9854,8 +9865,14 @@
       <c r="J1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>917</v>
+      </c>
+      <c r="L1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9884,6 +9901,12 @@
         <v>913</v>
       </c>
       <c r="J2" t="s">
+        <v>914</v>
+      </c>
+      <c r="K2" t="s">
+        <v>919</v>
+      </c>
+      <c r="L2" t="s">
         <v>914</v>
       </c>
     </row>

--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1612AF-D8BF-43EE-AC6C-919DD0AF2634}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B5DB43-530D-4157-B335-08A84C9F8AAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="53" activeTab="56" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="59" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FO_Registration_Page" sheetId="15" r:id="rId1"/>
@@ -65,6 +65,12 @@
     <sheet name="Bed_Status_AdmitPatient" sheetId="72" r:id="rId55"/>
     <sheet name="Bed_Status_BlockedBed" sheetId="73" r:id="rId56"/>
     <sheet name="IP_Billing_Audit_Clearance" sheetId="74" r:id="rId57"/>
+    <sheet name="Acknowledge_Discharge_Page" sheetId="75" r:id="rId58"/>
+    <sheet name="MiscellaneousCharges_Page" sheetId="76" r:id="rId59"/>
+    <sheet name="Ip_Ambulance_MrdCharges" sheetId="77" r:id="rId60"/>
+    <sheet name="IP_Pending_Investigation" sheetId="78" r:id="rId61"/>
+    <sheet name="IP_Credit_Limit" sheetId="79" r:id="rId62"/>
+    <sheet name="IP_General_OrderEntry" sheetId="80" r:id="rId63"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="975">
   <si>
     <t>SANITY HOSPITAL</t>
   </si>
@@ -2836,6 +2842,171 @@
   </si>
   <si>
     <t>Anup Approved Audit</t>
+  </si>
+  <si>
+    <t>Wards_Drp</t>
+  </si>
+  <si>
+    <t>Status_Drp</t>
+  </si>
+  <si>
+    <t>Enter_Expected_Date</t>
+  </si>
+  <si>
+    <t>Select_IP_Number_Drp</t>
+  </si>
+  <si>
+    <t>Select_Patient_Name_Drp</t>
+  </si>
+  <si>
+    <t>Enter_Patient_Name</t>
+  </si>
+  <si>
+    <t>Bill_Type_Drp</t>
+  </si>
+  <si>
+    <t>Enter_Discharge_Marked_Date</t>
+  </si>
+  <si>
+    <t>Unacknowledged</t>
+  </si>
+  <si>
+    <t>GYNAE RECOVERY(FIRST FLOOR)</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Dr. HUIDRTY DRTYJ</t>
+  </si>
+  <si>
+    <t>Mobile_no_Current_In_Patient</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Name_Current_In_Patient</t>
+  </si>
+  <si>
+    <t>Select_Doctor_Name_Drp</t>
+  </si>
+  <si>
+    <t>Service_Drp</t>
+  </si>
+  <si>
+    <t>Description_Drp</t>
+  </si>
+  <si>
+    <t>Auto_Description_Name</t>
+  </si>
+  <si>
+    <t>Type_Patient</t>
+  </si>
+  <si>
+    <t>Auto_Amount_enter</t>
+  </si>
+  <si>
+    <t>Quenty_Text</t>
+  </si>
+  <si>
+    <t>Auto_Posting_Date</t>
+  </si>
+  <si>
+    <t>Auto_Posting_Time</t>
+  </si>
+  <si>
+    <t>Serch_Services_Box</t>
+  </si>
+  <si>
+    <t>Dr.Himanshu Sharma ENT</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVE CHARGES</t>
+  </si>
+  <si>
+    <t>2D MRI - Spine (Radiology Services)</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Enter_Uhid</t>
+  </si>
+  <si>
+    <t>SPSL.9885421</t>
+  </si>
+  <si>
+    <t>Enter_UHID_Ambulance</t>
+  </si>
+  <si>
+    <t>Enter_IP_Number</t>
+  </si>
+  <si>
+    <t>SPSL.873175</t>
+  </si>
+  <si>
+    <t>Admission_Medical_Record_Charges</t>
+  </si>
+  <si>
+    <t>Biomedical Waste Charges New</t>
+  </si>
+  <si>
+    <t>Enter_Remarks</t>
+  </si>
+  <si>
+    <t>Item_Quenty</t>
+  </si>
+  <si>
+    <t>Enter_UHID_Excel</t>
+  </si>
+  <si>
+    <t>Modifiy_Credit_Limt_1</t>
+  </si>
+  <si>
+    <t>Modifiy_Credit_Limt_2</t>
+  </si>
+  <si>
+    <t>SPSL.885674</t>
+  </si>
+  <si>
+    <t>Enter_IP_Number_Excel</t>
+  </si>
+  <si>
+    <t>Ordered_By_Drp</t>
+  </si>
+  <si>
+    <t>PerformedBy_Drp</t>
+  </si>
+  <si>
+    <t>Procedure_Qty</t>
+  </si>
+  <si>
+    <t>Smart_Search_Procedure_Name</t>
+  </si>
+  <si>
+    <t>All Ceramic (3M) crown (pvt)</t>
+  </si>
+  <si>
+    <t>Dental Procedures</t>
+  </si>
+  <si>
+    <t>Anup General Order Entry</t>
+  </si>
+  <si>
+    <t>K.C. Mukherjee</t>
+  </si>
+  <si>
+    <t>Previous_Order_From_Date</t>
+  </si>
+  <si>
+    <t>Previous_Order_To_Date</t>
+  </si>
+  <si>
+    <t>From_Date_Search</t>
+  </si>
+  <si>
+    <t>To_Date_Search</t>
   </si>
 </sst>
 </file>
@@ -9816,8 +9987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D729585A-F387-460F-97C2-E80BD65AF1E5}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9908,6 +10079,248 @@
       </c>
       <c r="L2" t="s">
         <v>914</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F215D0E-DC71-4A58-A7C1-BB3FDC19142C}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D1" t="s">
+        <v>921</v>
+      </c>
+      <c r="E1" t="s">
+        <v>922</v>
+      </c>
+      <c r="F1" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H1" t="s">
+        <v>924</v>
+      </c>
+      <c r="I1" t="s">
+        <v>925</v>
+      </c>
+      <c r="J1" t="s">
+        <v>926</v>
+      </c>
+      <c r="K1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2" t="s">
+        <v>929</v>
+      </c>
+      <c r="D2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46032</v>
+      </c>
+      <c r="F2" t="s">
+        <v>848</v>
+      </c>
+      <c r="G2">
+        <v>24137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>930</v>
+      </c>
+      <c r="I2" t="s">
+        <v>931</v>
+      </c>
+      <c r="J2" t="s">
+        <v>523</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6C17CA-825F-46FA-9AF2-30D76CC44422}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G1" t="s">
+        <v>932</v>
+      </c>
+      <c r="H1" t="s">
+        <v>934</v>
+      </c>
+      <c r="I1" t="s">
+        <v>935</v>
+      </c>
+      <c r="J1" t="s">
+        <v>936</v>
+      </c>
+      <c r="K1" t="s">
+        <v>937</v>
+      </c>
+      <c r="L1" t="s">
+        <v>938</v>
+      </c>
+      <c r="M1" t="s">
+        <v>939</v>
+      </c>
+      <c r="N1" t="s">
+        <v>940</v>
+      </c>
+      <c r="O1" t="s">
+        <v>941</v>
+      </c>
+      <c r="P1" t="s">
+        <v>942</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>943</v>
+      </c>
+      <c r="R1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D2">
+        <v>27510</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46003</v>
+      </c>
+      <c r="F2" s="1">
+        <v>46053</v>
+      </c>
+      <c r="G2">
+        <v>9876543210</v>
+      </c>
+      <c r="H2" t="s">
+        <v>933</v>
+      </c>
+      <c r="I2" t="s">
+        <v>945</v>
+      </c>
+      <c r="J2" t="s">
+        <v>946</v>
+      </c>
+      <c r="K2" t="s">
+        <v>947</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>948</v>
+      </c>
+      <c r="N2">
+        <v>1000</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1">
+        <v>46053</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="R2" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -10049,6 +10462,342 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524359A0-2104-4284-80DF-E4D467856F6E}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" t="s">
+        <v>951</v>
+      </c>
+      <c r="D1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E1" t="s">
+        <v>954</v>
+      </c>
+      <c r="F1" t="s">
+        <v>956</v>
+      </c>
+      <c r="G1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2" t="s">
+        <v>953</v>
+      </c>
+      <c r="D2">
+        <v>24722</v>
+      </c>
+      <c r="E2" t="s">
+        <v>955</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658E2525-34D4-493E-BC75-42FCB8785136}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" t="s">
+        <v>932</v>
+      </c>
+      <c r="F1" t="s">
+        <v>934</v>
+      </c>
+      <c r="G1" t="s">
+        <v>958</v>
+      </c>
+      <c r="H1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46040</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46055</v>
+      </c>
+      <c r="E2">
+        <v>98766543210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>933</v>
+      </c>
+      <c r="G2" t="s">
+        <v>953</v>
+      </c>
+      <c r="H2">
+        <v>24722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D44066-CCF8-4E69-8974-47BB22EA7B20}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" t="s">
+        <v>952</v>
+      </c>
+      <c r="E1" t="s">
+        <v>959</v>
+      </c>
+      <c r="F1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D2">
+        <v>29336</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D536C2E-2049-4378-975D-D0690C151CB0}">
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F1" t="s">
+        <v>966</v>
+      </c>
+      <c r="G1" t="s">
+        <v>964</v>
+      </c>
+      <c r="H1" t="s">
+        <v>965</v>
+      </c>
+      <c r="I1" t="s">
+        <v>604</v>
+      </c>
+      <c r="J1" t="s">
+        <v>971</v>
+      </c>
+      <c r="K1" t="s">
+        <v>972</v>
+      </c>
+      <c r="L1" t="s">
+        <v>973</v>
+      </c>
+      <c r="M1" t="s">
+        <v>974</v>
+      </c>
+      <c r="N1" t="s">
+        <v>932</v>
+      </c>
+      <c r="O1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2">
+        <v>28870</v>
+      </c>
+      <c r="D2" t="s">
+        <v>968</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>967</v>
+      </c>
+      <c r="G2" t="s">
+        <v>970</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>969</v>
+      </c>
+      <c r="J2" s="1">
+        <v>46024</v>
+      </c>
+      <c r="K2" s="1">
+        <v>46056</v>
+      </c>
+      <c r="L2" s="1">
+        <v>46001</v>
+      </c>
+      <c r="M2" s="1">
+        <v>46056</v>
+      </c>
+      <c r="N2" s="1">
+        <v>9876543210</v>
+      </c>
+      <c r="O2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E25BFB-5A64-45CB-AFD0-C13AA2181D17}">
   <dimension ref="A1:G2"/>

--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B5DB43-530D-4157-B335-08A84C9F8AAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035A38C-E4F1-4B7A-A54F-3DC5EB14A667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="59" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="64" activeTab="66" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FO_Registration_Page" sheetId="15" r:id="rId1"/>
@@ -71,6 +71,10 @@
     <sheet name="IP_Pending_Investigation" sheetId="78" r:id="rId61"/>
     <sheet name="IP_Credit_Limit" sheetId="79" r:id="rId62"/>
     <sheet name="IP_General_OrderEntry" sheetId="80" r:id="rId63"/>
+    <sheet name="Nursing_Clearance_Page" sheetId="81" r:id="rId64"/>
+    <sheet name="Pharmacy_Discharge_Notification" sheetId="83" r:id="rId65"/>
+    <sheet name="Lab_Clearance_Page" sheetId="84" r:id="rId66"/>
+    <sheet name="Nursing_Activity_Page" sheetId="85" r:id="rId67"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="984">
   <si>
     <t>SANITY HOSPITAL</t>
   </si>
@@ -3007,6 +3011,33 @@
   </si>
   <si>
     <t>To_Date_Search</t>
+  </si>
+  <si>
+    <t>Nursing_Station_Drp</t>
+  </si>
+  <si>
+    <t>Enter_Date_Expected_Discharge</t>
+  </si>
+  <si>
+    <t>Type_Patient_Drp</t>
+  </si>
+  <si>
+    <t>Billing_Type_Drp</t>
+  </si>
+  <si>
+    <t>Enter_Date_Discharge_Marked</t>
+  </si>
+  <si>
+    <t>Pharmacy_Station_Drp</t>
+  </si>
+  <si>
+    <t>MATERIAL CENTRAL STORE</t>
+  </si>
+  <si>
+    <t>Pharmacy_Status_Drp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st Floor NS </t>
   </si>
 </sst>
 </file>
@@ -7916,8 +7947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F9016A-938F-4400-83E8-235BA46C870F}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10676,8 +10707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D536C2E-2049-4378-975D-D0690C151CB0}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:O2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10791,6 +10822,279 @@
       </c>
       <c r="O2" t="s">
         <v>933</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F09270-1FEE-4D7E-A2B1-067B6E58EC0B}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F1" t="s">
+        <v>952</v>
+      </c>
+      <c r="G1" t="s">
+        <v>978</v>
+      </c>
+      <c r="H1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46055</v>
+      </c>
+      <c r="E2" t="s">
+        <v>848</v>
+      </c>
+      <c r="F2">
+        <v>29344</v>
+      </c>
+      <c r="G2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H2" s="1">
+        <v>46025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C6946A-E358-4DE2-B43D-AD5F7808634C}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E1" t="s">
+        <v>976</v>
+      </c>
+      <c r="F1" t="s">
+        <v>977</v>
+      </c>
+      <c r="G1" t="s">
+        <v>952</v>
+      </c>
+      <c r="H1" t="s">
+        <v>978</v>
+      </c>
+      <c r="I1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="1">
+        <v>46054</v>
+      </c>
+      <c r="F2" t="s">
+        <v>848</v>
+      </c>
+      <c r="G2">
+        <v>29344</v>
+      </c>
+      <c r="H2" t="s">
+        <v>910</v>
+      </c>
+      <c r="I2" s="1">
+        <v>46057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2753D503-B7CA-43F7-BD19-60134A1E726F}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F1" t="s">
+        <v>952</v>
+      </c>
+      <c r="G1" t="s">
+        <v>978</v>
+      </c>
+      <c r="H1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46027</v>
+      </c>
+      <c r="E2" t="s">
+        <v>848</v>
+      </c>
+      <c r="F2">
+        <v>23564</v>
+      </c>
+      <c r="G2" t="s">
+        <v>523</v>
+      </c>
+      <c r="H2" s="1">
+        <v>46054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73523-0C7D-4155-AC44-E87812CD37B8}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/DataProvider_FrontOffice.xlsx
+++ b/InputData/DataProvider_FrontOffice.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1035A38C-E4F1-4B7A-A54F-3DC5EB14A667}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDB94F5-528B-4FF6-96DA-15B0BCBBBEDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="64" activeTab="66" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="62" activeTab="63" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FO_Registration_Page" sheetId="15" r:id="rId1"/>
@@ -71,10 +71,11 @@
     <sheet name="IP_Pending_Investigation" sheetId="78" r:id="rId61"/>
     <sheet name="IP_Credit_Limit" sheetId="79" r:id="rId62"/>
     <sheet name="IP_General_OrderEntry" sheetId="80" r:id="rId63"/>
-    <sheet name="Nursing_Clearance_Page" sheetId="81" r:id="rId64"/>
-    <sheet name="Pharmacy_Discharge_Notification" sheetId="83" r:id="rId65"/>
-    <sheet name="Lab_Clearance_Page" sheetId="84" r:id="rId66"/>
-    <sheet name="Nursing_Activity_Page" sheetId="85" r:id="rId67"/>
+    <sheet name="Ip_Doctor_Vist_Page" sheetId="86" r:id="rId64"/>
+    <sheet name="Nursing_Clearance_Page" sheetId="81" r:id="rId65"/>
+    <sheet name="Pharmacy_Discharge_Notification" sheetId="83" r:id="rId66"/>
+    <sheet name="Lab_Clearance_Page" sheetId="84" r:id="rId67"/>
+    <sheet name="Nursing_Activity_Page" sheetId="85" r:id="rId68"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="994">
   <si>
     <t>SANITY HOSPITAL</t>
   </si>
@@ -3038,6 +3039,36 @@
   </si>
   <si>
     <t xml:space="preserve">1st Floor NS </t>
+  </si>
+  <si>
+    <t>Find_Patint_By_Mobile_Number</t>
+  </si>
+  <si>
+    <t>Find_Patint_By_Name</t>
+  </si>
+  <si>
+    <t>Enter_Visit_Date</t>
+  </si>
+  <si>
+    <t>Visit_Timeing</t>
+  </si>
+  <si>
+    <t>Speciality_Drp_Visiting</t>
+  </si>
+  <si>
+    <t>Visiting_Doctor_Drp</t>
+  </si>
+  <si>
+    <t>Enter_Remarks_Text</t>
+  </si>
+  <si>
+    <t>Anup Remarks Visit Doctot</t>
+  </si>
+  <si>
+    <t>Enter_Search_From_Date</t>
+  </si>
+  <si>
+    <t>Eter_Search_To_Date</t>
   </si>
 </sst>
 </file>
@@ -10708,7 +10739,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10830,6 +10861,125 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869035F4-0440-4683-84DA-B1D3A25F3843}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection sqref="A1:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F1" t="s">
+        <v>985</v>
+      </c>
+      <c r="G1" t="s">
+        <v>952</v>
+      </c>
+      <c r="H1" t="s">
+        <v>986</v>
+      </c>
+      <c r="I1" t="s">
+        <v>987</v>
+      </c>
+      <c r="J1" t="s">
+        <v>988</v>
+      </c>
+      <c r="K1" t="s">
+        <v>989</v>
+      </c>
+      <c r="L1" t="s">
+        <v>990</v>
+      </c>
+      <c r="M1" t="s">
+        <v>992</v>
+      </c>
+      <c r="N1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46054</v>
+      </c>
+      <c r="D2" s="1">
+        <v>46058</v>
+      </c>
+      <c r="E2">
+        <v>9876543210</v>
+      </c>
+      <c r="F2" t="s">
+        <v>933</v>
+      </c>
+      <c r="G2">
+        <v>29296</v>
+      </c>
+      <c r="H2" s="1">
+        <v>46057</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L2" t="s">
+        <v>991</v>
+      </c>
+      <c r="M2" s="1">
+        <v>46058</v>
+      </c>
+      <c r="N2" s="1">
+        <v>46058</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F09270-1FEE-4D7E-A2B1-067B6E58EC0B}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -10906,7 +11056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C6946A-E358-4DE2-B43D-AD5F7808634C}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -10990,7 +11140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2753D503-B7CA-43F7-BD19-60134A1E726F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -11067,12 +11217,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B73523-0C7D-4155-AC44-E87812CD37B8}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
